--- a/Fuctionality&Requirements/ProgramFunctionality/WorkSupplier.xlsx
+++ b/Fuctionality&Requirements/ProgramFunctionality/WorkSupplier.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81F52B8-BB75-4A06-A0B3-E35F590A3A29}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69EAC14-DB9E-4692-9E9F-0909E856FC90}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42780" yWindow="1110" windowWidth="12105" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30165" yWindow="600" windowWidth="14610" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WorkSupplierMaint" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="357">
   <si>
     <t>№</t>
   </si>
@@ -1050,21 +1050,6 @@
   </si>
   <si>
     <t>The "About API PRO 10" window should appear if the user clicks on the "About" item.</t>
-  </si>
-  <si>
-    <t>The program window should close if the user clicks on the "Exit" button on the ToolBar.</t>
-  </si>
-  <si>
-    <t>If the user clicks on the "Find" button the "Find class" window should appear.</t>
-  </si>
-  <si>
-    <t>The parent element should be opened in the "Classification tree with spare parts" window if the user selects the element and clicks on the "Up" button.</t>
-  </si>
-  <si>
-    <t>If the user clicks on the "Refresh" button the "Classification tree with spare parts" window should be refreshed.</t>
-  </si>
-  <si>
-    <t>The "Filter criteria" window should appear if the user clicks on the "Class filter" button.</t>
   </si>
   <si>
     <t>Toolbar (Buttons)</t>
@@ -1401,7 +1386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1427,19 +1412,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1451,54 +1436,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1526,16 +1492,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1551,15 +1517,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1578,24 +1535,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1878,10 +1817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C440"/>
+  <dimension ref="A2:C435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="B258" sqref="B258"/>
+    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="B351" sqref="B351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1904,11 +1843,11 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -1960,11 +1899,11 @@
       <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
@@ -1981,2986 +1920,2951 @@
       <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="54"/>
+      <c r="C15" s="47"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="54"/>
+      <c r="C16" s="47"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="54"/>
+      <c r="C17" s="47"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="54"/>
+      <c r="C18" s="47"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="47"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="54"/>
+      <c r="C20" s="47"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="61"/>
+      <c r="C21" s="51"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="62"/>
+      <c r="C22" s="52"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="62"/>
+      <c r="C23" s="52"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="52"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="62"/>
+      <c r="C25" s="52"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="62"/>
+      <c r="C26" s="52"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="52"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="62"/>
+      <c r="C28" s="52"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="62"/>
+      <c r="C29" s="52"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="52"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="62"/>
+      <c r="C31" s="52"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="62"/>
+      <c r="C32" s="52"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
+      <c r="A33" s="49"/>
       <c r="B33" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="62"/>
+      <c r="C33" s="52"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="60"/>
-      <c r="B34" s="18" t="s">
+      <c r="A34" s="50"/>
+      <c r="B34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="63"/>
+      <c r="C34" s="53"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="55"/>
+      <c r="C35" s="42"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="56"/>
+      <c r="C36" s="40"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="56"/>
+      <c r="C37" s="40"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="56"/>
+      <c r="C38" s="40"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="56"/>
+      <c r="C39" s="40"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="57"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="57"/>
+      <c r="C40" s="41"/>
     </row>
     <row r="41" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="42"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="35"/>
     </row>
     <row r="42" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="45"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="38"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="C43" s="46"/>
+      <c r="C43" s="39"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="47"/>
+      <c r="C44" s="40"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="47"/>
+      <c r="C45" s="40"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="C46" s="47"/>
+      <c r="C46" s="40"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="47"/>
+      <c r="C47" s="40"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="47"/>
+      <c r="C48" s="40"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="C49" s="47"/>
+      <c r="C49" s="40"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
+      <c r="A50" s="40"/>
       <c r="B50" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="C50" s="47"/>
+      <c r="C50" s="40"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
+      <c r="A51" s="40"/>
       <c r="B51" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="C51" s="47"/>
+      <c r="C51" s="40"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="C52" s="47"/>
+      <c r="C52" s="40"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="47"/>
+      <c r="A53" s="40"/>
       <c r="B53" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="C53" s="47"/>
+      <c r="C53" s="40"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
-      <c r="B54" s="18" t="s">
+      <c r="A54" s="41"/>
+      <c r="B54" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="48"/>
+      <c r="C54" s="41"/>
     </row>
     <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="32"/>
-      <c r="B55" s="24" t="s">
+      <c r="A55" s="28"/>
+      <c r="B55" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="C55" s="32"/>
+      <c r="C55" s="28"/>
     </row>
     <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="24" t="s">
+      <c r="A56" s="28"/>
+      <c r="B56" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="C56" s="32"/>
+      <c r="C56" s="28"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
-      <c r="B57" s="24" t="s">
+      <c r="A57" s="28"/>
+      <c r="B57" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="C57" s="32"/>
+      <c r="C57" s="28"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="24" t="s">
+      <c r="A58" s="28"/>
+      <c r="B58" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="C58" s="32"/>
+      <c r="C58" s="28"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="32"/>
-      <c r="B59" s="24" t="s">
+      <c r="A59" s="28"/>
+      <c r="B59" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="C59" s="32"/>
+      <c r="C59" s="28"/>
     </row>
     <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="19" t="s">
+      <c r="A60" s="42"/>
+      <c r="B60" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="C60" s="49"/>
+      <c r="C60" s="42"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
-      <c r="B61" s="18" t="s">
+      <c r="A61" s="41"/>
+      <c r="B61" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C61" s="48"/>
+      <c r="C61" s="41"/>
     </row>
     <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
-      <c r="B62" s="19" t="s">
+      <c r="A62" s="42"/>
+      <c r="B62" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C62" s="49"/>
+      <c r="C62" s="42"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
-      <c r="B63" s="18" t="s">
+      <c r="A63" s="41"/>
+      <c r="B63" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C63" s="48"/>
+      <c r="C63" s="41"/>
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
-      <c r="B64" s="19" t="s">
+      <c r="A64" s="42"/>
+      <c r="B64" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="C64" s="49"/>
+      <c r="C64" s="42"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
-      <c r="B65" s="18" t="s">
+      <c r="A65" s="41"/>
+      <c r="B65" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C65" s="48"/>
+      <c r="C65" s="41"/>
     </row>
     <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="19" t="s">
+      <c r="A66" s="42"/>
+      <c r="B66" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="C66" s="49"/>
+      <c r="C66" s="42"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
-      <c r="B67" s="18" t="s">
+      <c r="A67" s="41"/>
+      <c r="B67" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C67" s="48"/>
+      <c r="C67" s="41"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24" t="s">
+      <c r="A68" s="22"/>
+      <c r="B68" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="C68" s="24"/>
+      <c r="C68" s="22"/>
     </row>
     <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
-      <c r="B69" s="24" t="s">
+      <c r="A69" s="22"/>
+      <c r="B69" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="C69" s="24"/>
+      <c r="C69" s="22"/>
     </row>
     <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="24"/>
-      <c r="B70" s="24" t="s">
+      <c r="A70" s="22"/>
+      <c r="B70" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="C70" s="24"/>
+      <c r="C70" s="22"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="24"/>
-      <c r="B71" s="24" t="s">
+      <c r="A71" s="22"/>
+      <c r="B71" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="C71" s="24"/>
+      <c r="C71" s="22"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
-      <c r="B72" s="19" t="s">
+      <c r="A72" s="42"/>
+      <c r="B72" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="C72" s="49"/>
+      <c r="C72" s="42"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="47"/>
+      <c r="A73" s="40"/>
       <c r="B73" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="47"/>
+      <c r="C73" s="40"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="47"/>
+      <c r="A74" s="40"/>
       <c r="B74" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="C74" s="47"/>
+      <c r="C74" s="40"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="47"/>
+      <c r="A75" s="40"/>
       <c r="B75" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="C75" s="47"/>
+      <c r="C75" s="40"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="47"/>
+      <c r="A76" s="40"/>
       <c r="B76" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="C76" s="47"/>
+      <c r="C76" s="40"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="48"/>
-      <c r="B77" s="18" t="s">
+      <c r="A77" s="41"/>
+      <c r="B77" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C77" s="48"/>
+      <c r="C77" s="41"/>
     </row>
     <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="24"/>
-      <c r="B78" s="24" t="s">
+      <c r="A78" s="22"/>
+      <c r="B78" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C78" s="24"/>
+      <c r="C78" s="22"/>
     </row>
     <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="24"/>
-      <c r="B79" s="24" t="s">
+      <c r="A79" s="22"/>
+      <c r="B79" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C79" s="24"/>
+      <c r="C79" s="22"/>
     </row>
     <row r="80" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="24"/>
-      <c r="B80" s="24" t="s">
+      <c r="A80" s="22"/>
+      <c r="B80" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="C80" s="24"/>
+      <c r="C80" s="22"/>
     </row>
     <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="24"/>
-      <c r="B81" s="24" t="s">
+      <c r="A81" s="22"/>
+      <c r="B81" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="C81" s="24"/>
+      <c r="C81" s="22"/>
     </row>
     <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="24"/>
-      <c r="B82" s="24" t="s">
+      <c r="A82" s="22"/>
+      <c r="B82" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="C82" s="24"/>
+      <c r="C82" s="22"/>
     </row>
     <row r="83" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="24"/>
-      <c r="B83" s="24" t="s">
+      <c r="A83" s="22"/>
+      <c r="B83" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="C83" s="24"/>
+      <c r="C83" s="22"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="49"/>
-      <c r="B84" s="19" t="s">
+      <c r="A84" s="42"/>
+      <c r="B84" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C84" s="49"/>
+      <c r="C84" s="42"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="47"/>
+      <c r="A85" s="40"/>
       <c r="B85" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C85" s="47"/>
+      <c r="C85" s="40"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="47"/>
+      <c r="A86" s="40"/>
       <c r="B86" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C86" s="47"/>
+      <c r="C86" s="40"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="47"/>
+      <c r="A87" s="40"/>
       <c r="B87" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C87" s="47"/>
+      <c r="C87" s="40"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="47"/>
+      <c r="A88" s="40"/>
       <c r="B88" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C88" s="47"/>
+      <c r="C88" s="40"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="47"/>
+      <c r="A89" s="40"/>
       <c r="B89" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C89" s="47"/>
+      <c r="C89" s="40"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="47"/>
+      <c r="A90" s="40"/>
       <c r="B90" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="C90" s="47"/>
+      <c r="C90" s="40"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="47"/>
+      <c r="A91" s="40"/>
       <c r="B91" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="C91" s="47"/>
+      <c r="C91" s="40"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="47"/>
+      <c r="A92" s="40"/>
       <c r="B92" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C92" s="47"/>
+      <c r="C92" s="40"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="48"/>
-      <c r="B93" s="18" t="s">
+      <c r="A93" s="41"/>
+      <c r="B93" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C93" s="48"/>
+      <c r="C93" s="41"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="24"/>
-      <c r="B94" s="24" t="s">
+      <c r="A94" s="22"/>
+      <c r="B94" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="C94" s="24"/>
+      <c r="C94" s="22"/>
     </row>
     <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="24"/>
-      <c r="B95" s="24" t="s">
+      <c r="A95" s="22"/>
+      <c r="B95" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="C95" s="24"/>
+      <c r="C95" s="22"/>
     </row>
     <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="24"/>
-      <c r="B96" s="24" t="s">
+      <c r="A96" s="22"/>
+      <c r="B96" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="C96" s="24"/>
+      <c r="C96" s="22"/>
     </row>
     <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="24"/>
-      <c r="B97" s="24" t="s">
+      <c r="A97" s="22"/>
+      <c r="B97" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="C97" s="24"/>
+      <c r="C97" s="22"/>
     </row>
     <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="24"/>
-      <c r="B98" s="24" t="s">
+      <c r="A98" s="22"/>
+      <c r="B98" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="C98" s="24"/>
+      <c r="C98" s="22"/>
     </row>
     <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="24"/>
-      <c r="B99" s="24" t="s">
+      <c r="A99" s="22"/>
+      <c r="B99" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="C99" s="24"/>
+      <c r="C99" s="22"/>
     </row>
     <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="24"/>
-      <c r="B100" s="24" t="s">
+      <c r="A100" s="22"/>
+      <c r="B100" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="C100" s="24"/>
+      <c r="C100" s="22"/>
     </row>
     <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="24"/>
-      <c r="B101" s="24" t="s">
+      <c r="A101" s="22"/>
+      <c r="B101" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="C101" s="24"/>
+      <c r="C101" s="22"/>
     </row>
     <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="24"/>
-      <c r="B102" s="24" t="s">
+      <c r="A102" s="22"/>
+      <c r="B102" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="C102" s="24"/>
+      <c r="C102" s="22"/>
     </row>
     <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="24"/>
-      <c r="B103" s="24" t="s">
+      <c r="A103" s="22"/>
+      <c r="B103" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="C103" s="24"/>
+      <c r="C103" s="22"/>
     </row>
     <row r="104" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="67"/>
-      <c r="B104" s="19" t="s">
+      <c r="A104" s="48"/>
+      <c r="B104" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="C104" s="64"/>
+      <c r="C104" s="51"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="68"/>
+      <c r="A105" s="49"/>
       <c r="B105" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="C105" s="65"/>
+      <c r="C105" s="52"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="68"/>
+      <c r="A106" s="49"/>
       <c r="B106" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="C106" s="65"/>
+      <c r="C106" s="52"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="68"/>
+      <c r="A107" s="49"/>
       <c r="B107" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="C107" s="65"/>
+      <c r="C107" s="52"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="68"/>
+      <c r="A108" s="49"/>
       <c r="B108" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="C108" s="65"/>
+      <c r="C108" s="52"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="68"/>
+      <c r="A109" s="49"/>
       <c r="B109" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="C109" s="65"/>
+      <c r="C109" s="52"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="68"/>
+      <c r="A110" s="49"/>
       <c r="B110" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C110" s="65"/>
+      <c r="C110" s="52"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="68"/>
+      <c r="A111" s="49"/>
       <c r="B111" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="C111" s="65"/>
+      <c r="C111" s="52"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="68"/>
+      <c r="A112" s="49"/>
       <c r="B112" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="C112" s="65"/>
+      <c r="C112" s="52"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="68"/>
+      <c r="A113" s="49"/>
       <c r="B113" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="C113" s="65"/>
+      <c r="C113" s="52"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="68"/>
+      <c r="A114" s="49"/>
       <c r="B114" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C114" s="65"/>
+      <c r="C114" s="52"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="68"/>
+      <c r="A115" s="49"/>
       <c r="B115" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="C115" s="65"/>
+      <c r="C115" s="52"/>
     </row>
     <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="68"/>
+      <c r="A116" s="49"/>
       <c r="B116" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="C116" s="65"/>
+      <c r="C116" s="52"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="68"/>
+      <c r="A117" s="49"/>
       <c r="B117" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="C117" s="65"/>
+      <c r="C117" s="52"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="68"/>
+      <c r="A118" s="49"/>
       <c r="B118" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="C118" s="65"/>
+      <c r="C118" s="52"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="69"/>
-      <c r="B119" s="18" t="s">
+      <c r="A119" s="50"/>
+      <c r="B119" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C119" s="66"/>
+      <c r="C119" s="53"/>
     </row>
     <row r="120" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="49"/>
-      <c r="B120" s="19" t="s">
+      <c r="A120" s="42"/>
+      <c r="B120" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C120" s="49"/>
+      <c r="C120" s="42"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="47"/>
+      <c r="A121" s="40"/>
       <c r="B121" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="C121" s="47"/>
+      <c r="C121" s="40"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="47"/>
+      <c r="A122" s="40"/>
       <c r="B122" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="C122" s="47"/>
+      <c r="C122" s="40"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="47"/>
+      <c r="A123" s="40"/>
       <c r="B123" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C123" s="47"/>
+      <c r="C123" s="40"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="47"/>
+      <c r="A124" s="40"/>
       <c r="B124" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C124" s="47"/>
+      <c r="C124" s="40"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="47"/>
+      <c r="A125" s="40"/>
       <c r="B125" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="C125" s="47"/>
+      <c r="C125" s="40"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="47"/>
+      <c r="A126" s="40"/>
       <c r="B126" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="C126" s="47"/>
+      <c r="C126" s="40"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="47"/>
+      <c r="A127" s="40"/>
       <c r="B127" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C127" s="47"/>
+      <c r="C127" s="40"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="47"/>
+      <c r="A128" s="40"/>
       <c r="B128" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C128" s="47"/>
+      <c r="C128" s="40"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="47"/>
+      <c r="A129" s="40"/>
       <c r="B129" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C129" s="47"/>
+      <c r="C129" s="40"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="47"/>
+      <c r="A130" s="40"/>
       <c r="B130" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="C130" s="47"/>
+      <c r="C130" s="40"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="47"/>
+      <c r="A131" s="40"/>
       <c r="B131" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C131" s="47"/>
+      <c r="C131" s="40"/>
     </row>
     <row r="132" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="47"/>
+      <c r="A132" s="40"/>
       <c r="B132" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C132" s="47"/>
+      <c r="C132" s="40"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="47"/>
+      <c r="A133" s="40"/>
       <c r="B133" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C133" s="47"/>
+      <c r="C133" s="40"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="47"/>
+      <c r="A134" s="40"/>
       <c r="B134" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="C134" s="47"/>
+      <c r="C134" s="40"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="48"/>
-      <c r="B135" s="18" t="s">
+      <c r="A135" s="41"/>
+      <c r="B135" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C135" s="48"/>
+      <c r="C135" s="41"/>
     </row>
     <row r="136" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A136" s="49"/>
-      <c r="B136" s="19" t="s">
+      <c r="A136" s="42"/>
+      <c r="B136" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="C136" s="49"/>
+      <c r="C136" s="42"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="47"/>
+      <c r="A137" s="40"/>
       <c r="B137" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="C137" s="47"/>
+      <c r="C137" s="40"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="47"/>
+      <c r="A138" s="40"/>
       <c r="B138" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="C138" s="47"/>
+      <c r="C138" s="40"/>
     </row>
     <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="48"/>
-      <c r="B139" s="18" t="s">
+      <c r="A139" s="41"/>
+      <c r="B139" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C139" s="48"/>
+      <c r="C139" s="41"/>
     </row>
     <row r="140" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="24"/>
-      <c r="B140" s="24" t="s">
+      <c r="A140" s="22"/>
+      <c r="B140" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="C140" s="24"/>
+      <c r="C140" s="22"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="49"/>
-      <c r="B141" s="19" t="s">
+      <c r="A141" s="42"/>
+      <c r="B141" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C141" s="49"/>
+      <c r="C141" s="42"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="47"/>
+      <c r="A142" s="40"/>
       <c r="B142" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C142" s="47"/>
+      <c r="C142" s="40"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="47"/>
+      <c r="A143" s="40"/>
       <c r="B143" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C143" s="47"/>
+      <c r="C143" s="40"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="47"/>
+      <c r="A144" s="40"/>
       <c r="B144" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C144" s="47"/>
+      <c r="C144" s="40"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="47"/>
+      <c r="A145" s="40"/>
       <c r="B145" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C145" s="47"/>
+      <c r="C145" s="40"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="47"/>
+      <c r="A146" s="40"/>
       <c r="B146" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="C146" s="47"/>
+      <c r="C146" s="40"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="47"/>
+      <c r="A147" s="40"/>
       <c r="B147" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="C147" s="47"/>
+      <c r="C147" s="40"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="47"/>
+      <c r="A148" s="40"/>
       <c r="B148" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C148" s="47"/>
+      <c r="C148" s="40"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="47"/>
+      <c r="A149" s="40"/>
       <c r="B149" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C149" s="47"/>
+      <c r="C149" s="40"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="47"/>
+      <c r="A150" s="40"/>
       <c r="B150" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="C150" s="47"/>
+      <c r="C150" s="40"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="48"/>
-      <c r="B151" s="18" t="s">
+      <c r="A151" s="41"/>
+      <c r="B151" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C151" s="48"/>
+      <c r="C151" s="41"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="24"/>
-      <c r="B152" s="24" t="s">
+      <c r="A152" s="22"/>
+      <c r="B152" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="C152" s="24"/>
+      <c r="C152" s="22"/>
     </row>
     <row r="153" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="49"/>
-      <c r="B153" s="19" t="s">
+      <c r="A153" s="42"/>
+      <c r="B153" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="C153" s="49"/>
+      <c r="C153" s="42"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="48"/>
-      <c r="B154" s="18" t="s">
+      <c r="A154" s="41"/>
+      <c r="B154" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C154" s="48"/>
+      <c r="C154" s="41"/>
     </row>
     <row r="155" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="49"/>
-      <c r="B155" s="19" t="s">
+      <c r="A155" s="42"/>
+      <c r="B155" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C155" s="49"/>
+      <c r="C155" s="42"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="48"/>
-      <c r="B156" s="18" t="s">
+      <c r="A156" s="41"/>
+      <c r="B156" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C156" s="48"/>
+      <c r="C156" s="41"/>
     </row>
     <row r="157" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="49"/>
-      <c r="B157" s="19" t="s">
+      <c r="A157" s="42"/>
+      <c r="B157" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="C157" s="49"/>
+      <c r="C157" s="42"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="48"/>
-      <c r="B158" s="18" t="s">
+      <c r="A158" s="41"/>
+      <c r="B158" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C158" s="48"/>
+      <c r="C158" s="41"/>
     </row>
     <row r="159" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="49"/>
-      <c r="B159" s="19" t="s">
+      <c r="A159" s="42"/>
+      <c r="B159" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="C159" s="49"/>
+      <c r="C159" s="42"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="48"/>
-      <c r="B160" s="18" t="s">
+      <c r="A160" s="41"/>
+      <c r="B160" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C160" s="48"/>
+      <c r="C160" s="41"/>
     </row>
     <row r="161" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="49"/>
-      <c r="B161" s="19" t="s">
+      <c r="A161" s="42"/>
+      <c r="B161" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="C161" s="49"/>
+      <c r="C161" s="42"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="48"/>
-      <c r="B162" s="18" t="s">
+      <c r="A162" s="41"/>
+      <c r="B162" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C162" s="48"/>
+      <c r="C162" s="41"/>
     </row>
     <row r="163" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="49"/>
-      <c r="B163" s="19" t="s">
+      <c r="A163" s="42"/>
+      <c r="B163" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="C163" s="49"/>
+      <c r="C163" s="42"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="48"/>
-      <c r="B164" s="18" t="s">
+      <c r="A164" s="41"/>
+      <c r="B164" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C164" s="48"/>
+      <c r="C164" s="41"/>
     </row>
     <row r="165" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="49"/>
-      <c r="B165" s="19" t="s">
+      <c r="A165" s="42"/>
+      <c r="B165" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="C165" s="49"/>
+      <c r="C165" s="42"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="48"/>
-      <c r="B166" s="18" t="s">
+      <c r="A166" s="41"/>
+      <c r="B166" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C166" s="48"/>
+      <c r="C166" s="41"/>
     </row>
     <row r="167" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="49"/>
-      <c r="B167" s="19" t="s">
+      <c r="A167" s="42"/>
+      <c r="B167" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="C167" s="49"/>
+      <c r="C167" s="42"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="48"/>
-      <c r="B168" s="18" t="s">
+      <c r="A168" s="41"/>
+      <c r="B168" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C168" s="48"/>
+      <c r="C168" s="41"/>
     </row>
     <row r="169" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="49"/>
-      <c r="B169" s="19" t="s">
+      <c r="A169" s="42"/>
+      <c r="B169" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="C169" s="49"/>
+      <c r="C169" s="42"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="48"/>
-      <c r="B170" s="18" t="s">
+      <c r="A170" s="41"/>
+      <c r="B170" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C170" s="48"/>
+      <c r="C170" s="41"/>
     </row>
     <row r="171" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="49"/>
-      <c r="B171" s="19" t="s">
+      <c r="A171" s="42"/>
+      <c r="B171" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="C171" s="49"/>
+      <c r="C171" s="42"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="48"/>
-      <c r="B172" s="18" t="s">
+      <c r="A172" s="41"/>
+      <c r="B172" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C172" s="48"/>
+      <c r="C172" s="41"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="54"/>
+      <c r="A173" s="47"/>
       <c r="B173" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="C173" s="54"/>
+      <c r="C173" s="47"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="54"/>
+      <c r="A174" s="47"/>
       <c r="B174" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="C174" s="54"/>
+      <c r="C174" s="47"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="54"/>
+      <c r="A175" s="47"/>
       <c r="B175" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="C175" s="54"/>
+      <c r="C175" s="47"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="54"/>
+      <c r="A176" s="47"/>
       <c r="B176" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="C176" s="54"/>
+      <c r="C176" s="47"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="54"/>
+      <c r="A177" s="47"/>
       <c r="B177" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C177" s="54"/>
+      <c r="C177" s="47"/>
     </row>
     <row r="178" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="33"/>
-      <c r="B178" s="34" t="s">
+      <c r="A178" s="22"/>
+      <c r="B178" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="C178" s="33"/>
+      <c r="C178" s="22"/>
     </row>
     <row r="179" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="33"/>
-      <c r="B179" s="34" t="s">
+      <c r="A179" s="22"/>
+      <c r="B179" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="C179" s="33"/>
+      <c r="C179" s="22"/>
     </row>
     <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="33"/>
-      <c r="B180" s="35" t="s">
+      <c r="A180" s="22"/>
+      <c r="B180" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="C180" s="33"/>
-    </row>
-    <row r="181" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="33"/>
-      <c r="B181" s="34" t="s">
+      <c r="C180" s="22"/>
+    </row>
+    <row r="181" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="22"/>
+      <c r="B181" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="C181" s="33"/>
-    </row>
-    <row r="182" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" s="33"/>
-      <c r="B182" s="34" t="s">
+      <c r="C181" s="22"/>
+    </row>
+    <row r="182" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="C182" s="33"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="33"/>
-      <c r="B183" s="36" t="s">
+      <c r="B182" s="34"/>
+      <c r="C182" s="35"/>
+    </row>
+    <row r="183" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B183" s="37"/>
+      <c r="C183" s="38"/>
+    </row>
+    <row r="184" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" s="17"/>
+      <c r="B184" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="C184" s="17"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="22"/>
+      <c r="B185" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="C185" s="22"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="22"/>
+      <c r="B186" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="C183" s="33"/>
-    </row>
-    <row r="184" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A184" s="33"/>
-      <c r="B184" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="C184" s="33"/>
-    </row>
-    <row r="185" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A185" s="33"/>
-      <c r="B185" s="34" t="s">
+      <c r="C186" s="22"/>
+    </row>
+    <row r="187" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="22"/>
+      <c r="B187" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="C185" s="33"/>
-    </row>
-    <row r="186" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="33"/>
-      <c r="B186" s="36" t="s">
+      <c r="C187" s="22"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="22"/>
+      <c r="B188" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="C186" s="33"/>
-    </row>
-    <row r="187" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="40" t="s">
+      <c r="C188" s="22"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="22"/>
+      <c r="B189" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="B187" s="41"/>
-      <c r="C187" s="42"/>
-    </row>
-    <row r="188" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="43" t="s">
+      <c r="C189" s="22"/>
+    </row>
+    <row r="190" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="42"/>
+      <c r="B190" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="C190" s="42"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="41"/>
+      <c r="B191" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C191" s="41"/>
+    </row>
+    <row r="192" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="42"/>
+      <c r="B192" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C192" s="42"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="41"/>
+      <c r="B193" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C193" s="41"/>
+    </row>
+    <row r="194" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="42"/>
+      <c r="B194" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="C194" s="42"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="41"/>
+      <c r="B195" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C195" s="41"/>
+    </row>
+    <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="42"/>
+      <c r="B196" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="C196" s="42"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="41"/>
+      <c r="B197" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C197" s="41"/>
+    </row>
+    <row r="198" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="22"/>
+      <c r="B198" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="C198" s="22"/>
+    </row>
+    <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="22"/>
+      <c r="B199" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="C199" s="22"/>
+    </row>
+    <row r="200" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="22"/>
+      <c r="B200" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="C200" s="22"/>
+    </row>
+    <row r="201" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="22"/>
+      <c r="B201" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="C201" s="22"/>
+    </row>
+    <row r="202" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="22"/>
+      <c r="B202" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="C202" s="22"/>
+    </row>
+    <row r="203" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A203" s="22"/>
+      <c r="B203" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="C203" s="22"/>
+    </row>
+    <row r="204" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="22"/>
+      <c r="B204" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="C204" s="22"/>
+    </row>
+    <row r="205" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="22"/>
+      <c r="B205" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="C205" s="22"/>
+    </row>
+    <row r="206" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="22"/>
+      <c r="B206" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="C206" s="22"/>
+    </row>
+    <row r="207" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B207" s="34"/>
+      <c r="C207" s="35"/>
+    </row>
+    <row r="208" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B208" s="37"/>
+      <c r="C208" s="38"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="47"/>
+      <c r="B209" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C209" s="47"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="47"/>
+      <c r="B210" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C210" s="47"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="47"/>
+      <c r="B211" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C211" s="47"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="47"/>
+      <c r="B212" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C212" s="47"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="47"/>
+      <c r="B213" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C213" s="47"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="47"/>
+      <c r="B214" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C214" s="47"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="47"/>
+      <c r="B215" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C215" s="47"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="47"/>
+      <c r="B216" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C216" s="47"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="47"/>
+      <c r="B217" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C217" s="47"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="47"/>
+      <c r="B218" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C218" s="47"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="18"/>
+      <c r="B219" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C219" s="30"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="19"/>
+      <c r="B220" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C220" s="31"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="19"/>
+      <c r="B221" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C221" s="31"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="19"/>
+      <c r="B222" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C222" s="31"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="19"/>
+      <c r="B223" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C223" s="31"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="19"/>
+      <c r="B224" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C224" s="31"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="19"/>
+      <c r="B225" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C225" s="31"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="19"/>
+      <c r="B226" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C226" s="31"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="19"/>
+      <c r="B227" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C227" s="31"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="19"/>
+      <c r="B228" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C228" s="31"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="19"/>
+      <c r="B229" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C229" s="31"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="19"/>
+      <c r="B230" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C230" s="31"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="19"/>
+      <c r="B231" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C231" s="31"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="19"/>
+      <c r="B232" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C232" s="31"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="19"/>
+      <c r="B233" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C233" s="31"/>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="20"/>
+      <c r="B234" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C234" s="32"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="30"/>
+      <c r="B235" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C235" s="30"/>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="31"/>
+      <c r="B236" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C236" s="31"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="32"/>
+      <c r="B237" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C237" s="32"/>
+    </row>
+    <row r="238" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A238" s="21"/>
+      <c r="B238" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C238" s="21"/>
+    </row>
+    <row r="239" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="21"/>
+      <c r="B239" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C239" s="21"/>
+    </row>
+    <row r="240" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B188" s="44"/>
-      <c r="C188" s="45"/>
-    </row>
-    <row r="189" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="17"/>
-      <c r="B189" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="C189" s="17"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="24"/>
-      <c r="B190" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="C190" s="24"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="24"/>
-      <c r="B191" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="C191" s="24"/>
-    </row>
-    <row r="192" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="24"/>
-      <c r="B192" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="C192" s="24"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="24"/>
-      <c r="B193" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="C193" s="24"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="24"/>
-      <c r="B194" s="24" t="s">
-        <v>348</v>
-      </c>
-      <c r="C194" s="24"/>
-    </row>
-    <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="49"/>
-      <c r="B195" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="C195" s="49"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="48"/>
-      <c r="B196" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="C196" s="48"/>
-    </row>
-    <row r="197" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="49"/>
-      <c r="B197" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="C197" s="49"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="48"/>
-      <c r="B198" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="C198" s="48"/>
-    </row>
-    <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="49"/>
-      <c r="B199" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C199" s="49"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="48"/>
-      <c r="B200" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="C200" s="48"/>
-    </row>
-    <row r="201" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A201" s="49"/>
-      <c r="B201" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="C201" s="49"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="48"/>
-      <c r="B202" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="C202" s="48"/>
-    </row>
-    <row r="203" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="24"/>
-      <c r="B203" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="C203" s="24"/>
-    </row>
-    <row r="204" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A204" s="24"/>
-      <c r="B204" s="24" t="s">
-        <v>355</v>
-      </c>
-      <c r="C204" s="24"/>
-    </row>
-    <row r="205" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="24"/>
-      <c r="B205" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="C205" s="24"/>
-    </row>
-    <row r="206" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="24"/>
-      <c r="B206" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="C206" s="24"/>
-    </row>
-    <row r="207" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" s="24"/>
-      <c r="B207" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="C207" s="24"/>
-    </row>
-    <row r="208" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A208" s="24"/>
-      <c r="B208" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="C208" s="24"/>
-    </row>
-    <row r="209" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A209" s="24"/>
-      <c r="B209" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="C209" s="24"/>
-    </row>
-    <row r="210" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="24"/>
-      <c r="B210" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="C210" s="24"/>
-    </row>
-    <row r="211" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="24"/>
-      <c r="B211" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="C211" s="24"/>
-    </row>
-    <row r="212" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B212" s="41"/>
-      <c r="C212" s="42"/>
-    </row>
-    <row r="213" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="43" t="s">
+      <c r="B240" s="37"/>
+      <c r="C240" s="38"/>
+    </row>
+    <row r="241" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A241" s="23"/>
+      <c r="B241" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C241" s="23"/>
+    </row>
+    <row r="242" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A242" s="21"/>
+      <c r="B242" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C242" s="21"/>
+    </row>
+    <row r="243" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A243" s="30"/>
+      <c r="B243" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C243" s="30"/>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="31"/>
+      <c r="B244" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C244" s="31"/>
+    </row>
+    <row r="245" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A245" s="32"/>
+      <c r="B245" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C245" s="32"/>
+    </row>
+    <row r="246" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A246" s="30"/>
+      <c r="B246" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C246" s="30"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="31"/>
+      <c r="B247" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C247" s="31"/>
+    </row>
+    <row r="248" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A248" s="32"/>
+      <c r="B248" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C248" s="32"/>
+    </row>
+    <row r="249" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A249" s="21"/>
+      <c r="B249" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C249" s="21"/>
+    </row>
+    <row r="250" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A250" s="21"/>
+      <c r="B250" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C250" s="21"/>
+    </row>
+    <row r="251" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A251" s="30"/>
+      <c r="B251" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C251" s="30"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="31"/>
+      <c r="B252" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C252" s="31"/>
+    </row>
+    <row r="253" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A253" s="32"/>
+      <c r="B253" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C253" s="32"/>
+    </row>
+    <row r="254" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A254" s="30"/>
+      <c r="B254" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C254" s="30"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="31"/>
+      <c r="B255" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C255" s="31"/>
+    </row>
+    <row r="256" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A256" s="32"/>
+      <c r="B256" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C256" s="32"/>
+    </row>
+    <row r="257" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A257" s="30"/>
+      <c r="B257" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C257" s="30"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="31"/>
+      <c r="B258" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C258" s="31"/>
+    </row>
+    <row r="259" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A259" s="32"/>
+      <c r="B259" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C259" s="32"/>
+    </row>
+    <row r="260" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A260" s="30"/>
+      <c r="B260" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C260" s="30"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="31"/>
+      <c r="B261" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C261" s="31"/>
+    </row>
+    <row r="262" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A262" s="32"/>
+      <c r="B262" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C262" s="32"/>
+    </row>
+    <row r="263" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A263" s="30"/>
+      <c r="B263" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C263" s="30"/>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="31"/>
+      <c r="B264" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C264" s="31"/>
+    </row>
+    <row r="265" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A265" s="32"/>
+      <c r="B265" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C265" s="32"/>
+    </row>
+    <row r="266" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A266" s="30"/>
+      <c r="B266" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C266" s="30"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="31"/>
+      <c r="B267" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C267" s="31"/>
+    </row>
+    <row r="268" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A268" s="32"/>
+      <c r="B268" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C268" s="32"/>
+    </row>
+    <row r="269" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A269" s="30"/>
+      <c r="B269" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C269" s="30"/>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="31"/>
+      <c r="B270" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C270" s="31"/>
+    </row>
+    <row r="271" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A271" s="32"/>
+      <c r="B271" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C271" s="32"/>
+    </row>
+    <row r="272" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A272" s="30"/>
+      <c r="B272" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C272" s="30"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="31"/>
+      <c r="B273" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C273" s="31"/>
+    </row>
+    <row r="274" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="32"/>
+      <c r="B274" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C274" s="32"/>
+    </row>
+    <row r="275" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A275" s="30"/>
+      <c r="B275" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C275" s="30"/>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="31"/>
+      <c r="B276" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C276" s="31"/>
+    </row>
+    <row r="277" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="32"/>
+      <c r="B277" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C277" s="32"/>
+    </row>
+    <row r="278" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A278" s="30"/>
+      <c r="B278" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C278" s="30"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="31"/>
+      <c r="B279" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C279" s="31"/>
+    </row>
+    <row r="280" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="32"/>
+      <c r="B280" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C280" s="32"/>
+    </row>
+    <row r="281" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A281" s="30"/>
+      <c r="B281" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C281" s="30"/>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="31"/>
+      <c r="B282" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C282" s="31"/>
+    </row>
+    <row r="283" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A283" s="32"/>
+      <c r="B283" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C283" s="32"/>
+    </row>
+    <row r="284" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A284" s="30"/>
+      <c r="B284" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C284" s="30"/>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="31"/>
+      <c r="B285" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C285" s="31"/>
+    </row>
+    <row r="286" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A286" s="32"/>
+      <c r="B286" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C286" s="32"/>
+    </row>
+    <row r="287" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A287" s="30"/>
+      <c r="B287" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C287" s="30"/>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="31"/>
+      <c r="B288" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C288" s="31"/>
+    </row>
+    <row r="289" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A289" s="32"/>
+      <c r="B289" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C289" s="32"/>
+    </row>
+    <row r="290" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A290" s="30"/>
+      <c r="B290" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C290" s="30"/>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="31"/>
+      <c r="B291" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C291" s="31"/>
+    </row>
+    <row r="292" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A292" s="32"/>
+      <c r="B292" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C292" s="32"/>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="24"/>
+      <c r="B293" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C293" s="24"/>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="24"/>
+      <c r="B294" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C294" s="24"/>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="24"/>
+      <c r="B295" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C295" s="24"/>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="24"/>
+      <c r="B296" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C296" s="24"/>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="24"/>
+      <c r="B297" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C297" s="24"/>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="24"/>
+      <c r="B298" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C298" s="24"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="24"/>
+      <c r="B299" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C299" s="24"/>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="24"/>
+      <c r="B300" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C300" s="24"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="24"/>
+      <c r="B301" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C301" s="24"/>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="24"/>
+      <c r="B302" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C302" s="24"/>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="24"/>
+      <c r="B303" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C303" s="24"/>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="21"/>
+      <c r="B304" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C304" s="21"/>
+    </row>
+    <row r="305" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A305" s="21"/>
+      <c r="B305" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C305" s="21"/>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="21"/>
+      <c r="B306" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C306" s="21"/>
+    </row>
+    <row r="307" spans="1:3" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="21"/>
+      <c r="B307" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C307" s="21"/>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="21"/>
+      <c r="B308" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C308" s="21"/>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="21"/>
+      <c r="B309" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C309" s="21"/>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="21"/>
+      <c r="B310" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C310" s="21"/>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="21"/>
+      <c r="B311" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C311" s="21"/>
+    </row>
+    <row r="312" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A312" s="30"/>
+      <c r="B312" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C312" s="30"/>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="31"/>
+      <c r="B313" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C313" s="31"/>
+    </row>
+    <row r="314" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A314" s="32"/>
+      <c r="B314" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C314" s="32"/>
+    </row>
+    <row r="315" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A315" s="30"/>
+      <c r="B315" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C315" s="30"/>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="32"/>
+      <c r="B316" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C316" s="32"/>
+    </row>
+    <row r="317" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A317" s="30"/>
+      <c r="B317" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C317" s="30"/>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="32"/>
+      <c r="B318" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C318" s="32"/>
+    </row>
+    <row r="319" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A319" s="30"/>
+      <c r="B319" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C319" s="30"/>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="31"/>
+      <c r="B320" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C320" s="31"/>
+    </row>
+    <row r="321" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="32"/>
+      <c r="B321" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C321" s="32"/>
+    </row>
+    <row r="322" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A322" s="30"/>
+      <c r="B322" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C322" s="30"/>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="31"/>
+      <c r="B323" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C323" s="31"/>
+    </row>
+    <row r="324" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="32"/>
+      <c r="B324" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C324" s="32"/>
+    </row>
+    <row r="325" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A325" s="30"/>
+      <c r="B325" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C325" s="30"/>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="31"/>
+      <c r="B326" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C326" s="31"/>
+    </row>
+    <row r="327" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A327" s="32"/>
+      <c r="B327" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C327" s="32"/>
+    </row>
+    <row r="328" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A328" s="30"/>
+      <c r="B328" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C328" s="30"/>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="31"/>
+      <c r="B329" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C329" s="31"/>
+    </row>
+    <row r="330" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A330" s="32"/>
+      <c r="B330" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C330" s="32"/>
+    </row>
+    <row r="331" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A331" s="30"/>
+      <c r="B331" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C331" s="30"/>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="31"/>
+      <c r="B332" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C332" s="31"/>
+    </row>
+    <row r="333" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A333" s="32"/>
+      <c r="B333" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C333" s="32"/>
+    </row>
+    <row r="334" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A334" s="30"/>
+      <c r="B334" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C334" s="30"/>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="31"/>
+      <c r="B335" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C335" s="31"/>
+    </row>
+    <row r="336" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="32"/>
+      <c r="B336" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C336" s="32"/>
+    </row>
+    <row r="337" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B337" s="34"/>
+      <c r="C337" s="35"/>
+    </row>
+    <row r="338" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B213" s="44"/>
-      <c r="C213" s="45"/>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="54"/>
-      <c r="B214" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C214" s="54"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="54"/>
-      <c r="B215" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C215" s="54"/>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="54"/>
-      <c r="B216" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C216" s="54"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="54"/>
-      <c r="B217" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C217" s="54"/>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="54"/>
-      <c r="B218" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C218" s="54"/>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="54"/>
-      <c r="B219" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C219" s="54"/>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="54"/>
-      <c r="B220" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C220" s="54"/>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="54"/>
-      <c r="B221" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C221" s="54"/>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="54"/>
-      <c r="B222" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C222" s="54"/>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="54"/>
-      <c r="B223" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C223" s="54"/>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="20"/>
-      <c r="B224" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C224" s="37"/>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="21"/>
-      <c r="B225" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C225" s="38"/>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="21"/>
-      <c r="B226" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C226" s="38"/>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="21"/>
-      <c r="B227" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C227" s="38"/>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="21"/>
-      <c r="B228" s="17" t="s">
+      <c r="B338" s="37"/>
+      <c r="C338" s="38"/>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="43"/>
+      <c r="B339" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C339" s="45"/>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="43"/>
+      <c r="B340" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C340" s="45"/>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="44"/>
+      <c r="B341" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C341" s="46"/>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="21"/>
+      <c r="B342" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C342" s="21"/>
+    </row>
+    <row r="343" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="21"/>
+      <c r="B343" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C343" s="21"/>
+    </row>
+    <row r="344" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B344" s="37"/>
+      <c r="C344" s="38"/>
+    </row>
+    <row r="345" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A345" s="30"/>
+      <c r="B345" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C345" s="30"/>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="31"/>
+      <c r="B346" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C346" s="31"/>
+    </row>
+    <row r="347" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A347" s="32"/>
+      <c r="B347" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C347" s="32"/>
+    </row>
+    <row r="348" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A348" s="30"/>
+      <c r="B348" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C348" s="30"/>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="31"/>
+      <c r="B349" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C349" s="31"/>
+    </row>
+    <row r="350" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A350" s="32"/>
+      <c r="B350" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C350" s="32"/>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="21"/>
+      <c r="B351" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C351" s="21"/>
+    </row>
+    <row r="352" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="21"/>
+      <c r="B352" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C352" s="21"/>
+    </row>
+    <row r="353" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B353" s="34"/>
+      <c r="C353" s="35"/>
+    </row>
+    <row r="354" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B354" s="37"/>
+      <c r="C354" s="38"/>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="43"/>
+      <c r="B355" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C355" s="45"/>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="43"/>
+      <c r="B356" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C356" s="45"/>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="43"/>
+      <c r="B357" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C357" s="45"/>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="43"/>
+      <c r="B358" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C358" s="45"/>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="43"/>
+      <c r="B359" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C359" s="45"/>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="44"/>
+      <c r="B360" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C360" s="46"/>
+    </row>
+    <row r="361" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A361" s="21"/>
+      <c r="B361" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C361" s="21"/>
+    </row>
+    <row r="362" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="21"/>
+      <c r="B362" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C362" s="21"/>
+    </row>
+    <row r="363" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A363" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B363" s="37"/>
+      <c r="C363" s="38"/>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="21"/>
+      <c r="B364" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C364" s="21"/>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="21"/>
+      <c r="B365" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C365" s="21"/>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="21"/>
+      <c r="B366" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C366" s="21"/>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="21"/>
+      <c r="B367" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C367" s="21"/>
+    </row>
+    <row r="368" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A368" s="30"/>
+      <c r="B368" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C368" s="30"/>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="31"/>
+      <c r="B369" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C369" s="31"/>
+    </row>
+    <row r="370" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A370" s="32"/>
+      <c r="B370" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C370" s="32"/>
+    </row>
+    <row r="371" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A371" s="30"/>
+      <c r="B371" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C371" s="30"/>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="31"/>
+      <c r="B372" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C372" s="31"/>
+    </row>
+    <row r="373" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A373" s="32"/>
+      <c r="B373" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C373" s="32"/>
+    </row>
+    <row r="374" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A374" s="30"/>
+      <c r="B374" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C374" s="30"/>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="31"/>
+      <c r="B375" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C375" s="31"/>
+    </row>
+    <row r="376" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A376" s="32"/>
+      <c r="B376" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C376" s="32"/>
+    </row>
+    <row r="377" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A377" s="30"/>
+      <c r="B377" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C377" s="30"/>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="31"/>
+      <c r="B378" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C378" s="31"/>
+    </row>
+    <row r="379" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="32"/>
+      <c r="B379" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C379" s="32"/>
+    </row>
+    <row r="380" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B380" s="34"/>
+      <c r="C380" s="35"/>
+    </row>
+    <row r="381" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B381" s="37"/>
+      <c r="C381" s="38"/>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="43"/>
+      <c r="B382" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C382" s="45"/>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="43"/>
+      <c r="B383" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C383" s="45"/>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="43"/>
+      <c r="B384" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C384" s="45"/>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="43"/>
+      <c r="B385" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C385" s="45"/>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="43"/>
+      <c r="B386" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C386" s="45"/>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="44"/>
+      <c r="B387" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C387" s="46"/>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="21"/>
+      <c r="B388" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C388" s="21"/>
+    </row>
+    <row r="389" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="21"/>
+      <c r="B389" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C389" s="21"/>
+    </row>
+    <row r="390" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B390" s="37"/>
+      <c r="C390" s="38"/>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="21"/>
+      <c r="B391" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C391" s="21"/>
+    </row>
+    <row r="392" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A392" s="21"/>
+      <c r="B392" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C392" s="21"/>
+    </row>
+    <row r="393" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A393" s="21"/>
+      <c r="B393" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C393" s="21"/>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="21"/>
+      <c r="B394" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C394" s="21"/>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="21"/>
+      <c r="B395" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C395" s="21"/>
+    </row>
+    <row r="396" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A396" s="21"/>
+      <c r="B396" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C396" s="21"/>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="21"/>
+      <c r="B397" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C397" s="21"/>
+    </row>
+    <row r="398" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A398" s="30"/>
+      <c r="B398" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C398" s="30"/>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="31"/>
+      <c r="B399" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C399" s="31"/>
+    </row>
+    <row r="400" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A400" s="32"/>
+      <c r="B400" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C400" s="32"/>
+    </row>
+    <row r="401" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A401" s="30"/>
+      <c r="B401" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C401" s="30"/>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="31"/>
+      <c r="B402" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C402" s="31"/>
+    </row>
+    <row r="403" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="32"/>
+      <c r="B403" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C403" s="32"/>
+    </row>
+    <row r="404" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B404" s="34"/>
+      <c r="C404" s="35"/>
+    </row>
+    <row r="405" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B405" s="37"/>
+      <c r="C405" s="38"/>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="31"/>
+      <c r="B406" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C406" s="31"/>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="31"/>
+      <c r="B407" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C228" s="38"/>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="21"/>
-      <c r="B229" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C229" s="38"/>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="21"/>
-      <c r="B230" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C230" s="38"/>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="21"/>
-      <c r="B231" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C231" s="38"/>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="21"/>
-      <c r="B232" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C232" s="38"/>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="21"/>
-      <c r="B233" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C233" s="38"/>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="21"/>
-      <c r="B234" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C234" s="38"/>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="21"/>
-      <c r="B235" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C235" s="38"/>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="21"/>
-      <c r="B236" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C236" s="38"/>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="21"/>
-      <c r="B237" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C237" s="38"/>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="21"/>
-      <c r="B238" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C238" s="38"/>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="22"/>
-      <c r="B239" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C239" s="39"/>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="37"/>
-      <c r="B240" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C240" s="37"/>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="38"/>
-      <c r="B241" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C241" s="38"/>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="39"/>
-      <c r="B242" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C242" s="39"/>
-    </row>
-    <row r="243" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A243" s="23"/>
-      <c r="B243" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C243" s="23"/>
-    </row>
-    <row r="244" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="23"/>
-      <c r="B244" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C244" s="23"/>
-    </row>
-    <row r="245" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="43" t="s">
+      <c r="C407" s="31"/>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="31"/>
+      <c r="B408" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C408" s="31"/>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="31"/>
+      <c r="B409" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C409" s="31"/>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="31"/>
+      <c r="B410" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C410" s="31"/>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="32"/>
+      <c r="B411" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C411" s="32"/>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="27"/>
+      <c r="B412" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C412" s="27"/>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="27"/>
+      <c r="B413" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C413" s="27"/>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="27"/>
+      <c r="B414" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C414" s="27"/>
+    </row>
+    <row r="415" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A415" s="21"/>
+      <c r="B415" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C415" s="21"/>
+    </row>
+    <row r="416" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A416" s="21"/>
+      <c r="B416" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C416" s="21"/>
+    </row>
+    <row r="417" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A417" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B245" s="44"/>
-      <c r="C245" s="45"/>
-    </row>
-    <row r="246" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A246" s="25"/>
-      <c r="B246" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C246" s="25"/>
-    </row>
-    <row r="247" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A247" s="23"/>
-      <c r="B247" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C247" s="23"/>
-    </row>
-    <row r="248" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A248" s="37"/>
-      <c r="B248" s="19" t="s">
+      <c r="B417" s="37"/>
+      <c r="C417" s="38"/>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="23"/>
+      <c r="B418" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C418" s="23"/>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="21"/>
+      <c r="B419" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C419" s="21"/>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="21"/>
+      <c r="B420" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C420" s="21"/>
+    </row>
+    <row r="421" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A421" s="21"/>
+      <c r="B421" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C421" s="21"/>
+    </row>
+    <row r="422" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A422" s="21"/>
+      <c r="B422" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C422" s="21"/>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="21"/>
+      <c r="B423" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C423" s="21"/>
+    </row>
+    <row r="424" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A424" s="21"/>
+      <c r="B424" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C424" s="21"/>
+    </row>
+    <row r="425" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A425" s="30"/>
+      <c r="B425" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C248" s="37"/>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="38"/>
-      <c r="B249" s="17" t="s">
+      <c r="C425" s="30"/>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="31"/>
+      <c r="B426" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C249" s="38"/>
-    </row>
-    <row r="250" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A250" s="39"/>
-      <c r="B250" s="18" t="s">
+      <c r="C426" s="31"/>
+    </row>
+    <row r="427" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A427" s="32"/>
+      <c r="B427" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C250" s="39"/>
-    </row>
-    <row r="251" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A251" s="37"/>
-      <c r="B251" s="19" t="s">
+      <c r="C427" s="32"/>
+    </row>
+    <row r="428" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A428" s="30"/>
+      <c r="B428" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C251" s="37"/>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="38"/>
-      <c r="B252" s="17" t="s">
+      <c r="C428" s="30"/>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="31"/>
+      <c r="B429" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C252" s="38"/>
-    </row>
-    <row r="253" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A253" s="39"/>
-      <c r="B253" s="18" t="s">
+      <c r="C429" s="31"/>
+    </row>
+    <row r="430" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A430" s="32"/>
+      <c r="B430" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C253" s="39"/>
-    </row>
-    <row r="254" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A254" s="23"/>
-      <c r="B254" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C254" s="23"/>
-    </row>
-    <row r="255" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A255" s="23"/>
-      <c r="B255" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C255" s="23"/>
-    </row>
-    <row r="256" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A256" s="37"/>
-      <c r="B256" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C256" s="37"/>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="38"/>
-      <c r="B257" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C257" s="38"/>
-    </row>
-    <row r="258" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A258" s="39"/>
-      <c r="B258" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C258" s="39"/>
-    </row>
-    <row r="259" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A259" s="37"/>
-      <c r="B259" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C259" s="37"/>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="38"/>
-      <c r="B260" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C260" s="38"/>
-    </row>
-    <row r="261" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A261" s="39"/>
-      <c r="B261" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C261" s="39"/>
-    </row>
-    <row r="262" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A262" s="37"/>
-      <c r="B262" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C262" s="37"/>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="38"/>
-      <c r="B263" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C263" s="38"/>
-    </row>
-    <row r="264" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A264" s="39"/>
-      <c r="B264" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C264" s="39"/>
-    </row>
-    <row r="265" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A265" s="37"/>
-      <c r="B265" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C265" s="37"/>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="38"/>
-      <c r="B266" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C266" s="38"/>
-    </row>
-    <row r="267" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A267" s="39"/>
-      <c r="B267" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C267" s="39"/>
-    </row>
-    <row r="268" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A268" s="37"/>
-      <c r="B268" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C268" s="37"/>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="38"/>
-      <c r="B269" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C269" s="38"/>
-    </row>
-    <row r="270" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A270" s="39"/>
-      <c r="B270" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C270" s="39"/>
-    </row>
-    <row r="271" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A271" s="37"/>
-      <c r="B271" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C271" s="37"/>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="38"/>
-      <c r="B272" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C272" s="38"/>
-    </row>
-    <row r="273" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A273" s="39"/>
-      <c r="B273" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C273" s="39"/>
-    </row>
-    <row r="274" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A274" s="37"/>
-      <c r="B274" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C274" s="37"/>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="38"/>
-      <c r="B275" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C275" s="38"/>
-    </row>
-    <row r="276" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A276" s="39"/>
-      <c r="B276" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C276" s="39"/>
-    </row>
-    <row r="277" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A277" s="37"/>
-      <c r="B277" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C277" s="37"/>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="38"/>
-      <c r="B278" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C278" s="38"/>
-    </row>
-    <row r="279" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="39"/>
-      <c r="B279" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C279" s="39"/>
-    </row>
-    <row r="280" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A280" s="37"/>
-      <c r="B280" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C280" s="37"/>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="38"/>
-      <c r="B281" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C281" s="38"/>
-    </row>
-    <row r="282" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="39"/>
-      <c r="B282" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C282" s="39"/>
-    </row>
-    <row r="283" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A283" s="37"/>
-      <c r="B283" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C283" s="37"/>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="38"/>
-      <c r="B284" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C284" s="38"/>
-    </row>
-    <row r="285" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="39"/>
-      <c r="B285" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C285" s="39"/>
-    </row>
-    <row r="286" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A286" s="37"/>
-      <c r="B286" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C286" s="37"/>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="38"/>
-      <c r="B287" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C287" s="38"/>
-    </row>
-    <row r="288" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A288" s="39"/>
-      <c r="B288" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C288" s="39"/>
-    </row>
-    <row r="289" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A289" s="37"/>
-      <c r="B289" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C289" s="37"/>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="38"/>
-      <c r="B290" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C290" s="38"/>
-    </row>
-    <row r="291" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A291" s="39"/>
-      <c r="B291" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C291" s="39"/>
-    </row>
-    <row r="292" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A292" s="37"/>
-      <c r="B292" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C292" s="37"/>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="38"/>
-      <c r="B293" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C293" s="38"/>
-    </row>
-    <row r="294" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A294" s="39"/>
-      <c r="B294" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C294" s="39"/>
-    </row>
-    <row r="295" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A295" s="37"/>
-      <c r="B295" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C295" s="37"/>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="38"/>
-      <c r="B296" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C296" s="38"/>
-    </row>
-    <row r="297" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A297" s="39"/>
-      <c r="B297" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C297" s="39"/>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="26"/>
-      <c r="B298" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C298" s="26"/>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="26"/>
-      <c r="B299" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C299" s="26"/>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="26"/>
-      <c r="B300" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C300" s="26"/>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="26"/>
-      <c r="B301" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="C301" s="26"/>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="26"/>
-      <c r="B302" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="C302" s="26"/>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="26"/>
-      <c r="B303" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C303" s="26"/>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="26"/>
-      <c r="B304" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C304" s="26"/>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="26"/>
-      <c r="B305" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="C305" s="26"/>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="26"/>
-      <c r="B306" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="C306" s="26"/>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="26"/>
-      <c r="B307" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="C307" s="26"/>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="26"/>
-      <c r="B308" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="C308" s="26"/>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="23"/>
-      <c r="B309" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C309" s="23"/>
-    </row>
-    <row r="310" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A310" s="23"/>
-      <c r="B310" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C310" s="23"/>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="23"/>
-      <c r="B311" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C311" s="23"/>
-    </row>
-    <row r="312" spans="1:3" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="23"/>
-      <c r="B312" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C312" s="23"/>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="23"/>
-      <c r="B313" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C313" s="23"/>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="23"/>
-      <c r="B314" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C314" s="23"/>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="23"/>
-      <c r="B315" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="C315" s="23"/>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="23"/>
-      <c r="B316" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C316" s="23"/>
-    </row>
-    <row r="317" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A317" s="37"/>
-      <c r="B317" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C317" s="37"/>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="38"/>
-      <c r="B318" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C318" s="38"/>
-    </row>
-    <row r="319" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A319" s="39"/>
-      <c r="B319" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C319" s="39"/>
-    </row>
-    <row r="320" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A320" s="37"/>
-      <c r="B320" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="C320" s="37"/>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="39"/>
-      <c r="B321" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C321" s="39"/>
-    </row>
-    <row r="322" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A322" s="37"/>
-      <c r="B322" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C322" s="37"/>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="39"/>
-      <c r="B323" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C323" s="39"/>
-    </row>
-    <row r="324" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A324" s="37"/>
-      <c r="B324" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="C324" s="37"/>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="38"/>
-      <c r="B325" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C325" s="38"/>
-    </row>
-    <row r="326" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="39"/>
-      <c r="B326" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C326" s="39"/>
-    </row>
-    <row r="327" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A327" s="37"/>
-      <c r="B327" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C327" s="37"/>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="38"/>
-      <c r="B328" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C328" s="38"/>
-    </row>
-    <row r="329" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="39"/>
-      <c r="B329" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C329" s="39"/>
-    </row>
-    <row r="330" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A330" s="37"/>
-      <c r="B330" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C330" s="37"/>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="38"/>
-      <c r="B331" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C331" s="38"/>
-    </row>
-    <row r="332" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A332" s="39"/>
-      <c r="B332" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C332" s="39"/>
-    </row>
-    <row r="333" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A333" s="37"/>
-      <c r="B333" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C333" s="37"/>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="38"/>
-      <c r="B334" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C334" s="38"/>
-    </row>
-    <row r="335" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A335" s="39"/>
-      <c r="B335" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C335" s="39"/>
-    </row>
-    <row r="336" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A336" s="37"/>
-      <c r="B336" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C336" s="37"/>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="38"/>
-      <c r="B337" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C337" s="38"/>
-    </row>
-    <row r="338" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A338" s="39"/>
-      <c r="B338" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C338" s="39"/>
-    </row>
-    <row r="339" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A339" s="37"/>
-      <c r="B339" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C339" s="37"/>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" s="38"/>
-      <c r="B340" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C340" s="38"/>
-    </row>
-    <row r="341" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="39"/>
-      <c r="B341" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="C341" s="39"/>
-    </row>
-    <row r="342" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="B342" s="41"/>
-      <c r="C342" s="42"/>
-    </row>
-    <row r="343" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B343" s="44"/>
-      <c r="C343" s="45"/>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344" s="50"/>
-      <c r="B344" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="C344" s="52"/>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="50"/>
-      <c r="B345" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C345" s="52"/>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="51"/>
-      <c r="B346" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="C346" s="53"/>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="23"/>
-      <c r="B347" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="C347" s="23"/>
-    </row>
-    <row r="348" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="23"/>
-      <c r="B348" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="C348" s="23"/>
-    </row>
-    <row r="349" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B349" s="44"/>
-      <c r="C349" s="45"/>
-    </row>
-    <row r="350" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A350" s="37"/>
-      <c r="B350" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C350" s="37"/>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351" s="38"/>
-      <c r="B351" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C351" s="38"/>
-    </row>
-    <row r="352" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A352" s="39"/>
-      <c r="B352" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C352" s="39"/>
-    </row>
-    <row r="353" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A353" s="37"/>
-      <c r="B353" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C353" s="37"/>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" s="38"/>
-      <c r="B354" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C354" s="38"/>
-    </row>
-    <row r="355" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A355" s="39"/>
-      <c r="B355" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C355" s="39"/>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" s="23"/>
-      <c r="B356" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C356" s="23"/>
-    </row>
-    <row r="357" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="23"/>
-      <c r="B357" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="C357" s="23"/>
-    </row>
-    <row r="358" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="B358" s="41"/>
-      <c r="C358" s="42"/>
-    </row>
-    <row r="359" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B359" s="44"/>
-      <c r="C359" s="45"/>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="50"/>
-      <c r="B360" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="C360" s="52"/>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361" s="50"/>
-      <c r="B361" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C361" s="52"/>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362" s="50"/>
-      <c r="B362" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C362" s="52"/>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" s="50"/>
-      <c r="B363" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="C363" s="52"/>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="50"/>
-      <c r="B364" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C364" s="52"/>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" s="51"/>
-      <c r="B365" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="C365" s="53"/>
-    </row>
-    <row r="366" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A366" s="23"/>
-      <c r="B366" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="C366" s="23"/>
-    </row>
-    <row r="367" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="23"/>
-      <c r="B367" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="C367" s="23"/>
-    </row>
-    <row r="368" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A368" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B368" s="44"/>
-      <c r="C368" s="45"/>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="23"/>
-      <c r="B369" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="C369" s="23"/>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370" s="23"/>
-      <c r="B370" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="C370" s="23"/>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="23"/>
-      <c r="B371" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="C371" s="23"/>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" s="23"/>
-      <c r="B372" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="C372" s="23"/>
-    </row>
-    <row r="373" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A373" s="37"/>
-      <c r="B373" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C373" s="37"/>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="38"/>
-      <c r="B374" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C374" s="38"/>
-    </row>
-    <row r="375" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A375" s="39"/>
-      <c r="B375" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C375" s="39"/>
-    </row>
-    <row r="376" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A376" s="37"/>
-      <c r="B376" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C376" s="37"/>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377" s="38"/>
-      <c r="B377" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C377" s="38"/>
-    </row>
-    <row r="378" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A378" s="39"/>
-      <c r="B378" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C378" s="39"/>
-    </row>
-    <row r="379" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A379" s="37"/>
-      <c r="B379" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C379" s="37"/>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="38"/>
-      <c r="B380" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C380" s="38"/>
-    </row>
-    <row r="381" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A381" s="39"/>
-      <c r="B381" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="C381" s="39"/>
-    </row>
-    <row r="382" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A382" s="37"/>
-      <c r="B382" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C382" s="37"/>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383" s="38"/>
-      <c r="B383" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C383" s="38"/>
-    </row>
-    <row r="384" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="39"/>
-      <c r="B384" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="C384" s="39"/>
-    </row>
-    <row r="385" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A385" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="B385" s="41"/>
-      <c r="C385" s="42"/>
-    </row>
-    <row r="386" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B386" s="44"/>
-      <c r="C386" s="45"/>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="50"/>
-      <c r="B387" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="C387" s="52"/>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388" s="50"/>
-      <c r="B388" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C388" s="52"/>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389" s="50"/>
-      <c r="B389" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="C389" s="52"/>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390" s="50"/>
-      <c r="B390" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="C390" s="52"/>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="50"/>
-      <c r="B391" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="C391" s="52"/>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392" s="51"/>
-      <c r="B392" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="C392" s="53"/>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="23"/>
-      <c r="B393" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="C393" s="23"/>
-    </row>
-    <row r="394" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="23"/>
-      <c r="B394" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="C394" s="23"/>
-    </row>
-    <row r="395" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A395" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B395" s="44"/>
-      <c r="C395" s="45"/>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" s="23"/>
-      <c r="B396" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="C396" s="23"/>
-    </row>
-    <row r="397" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A397" s="23"/>
-      <c r="B397" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="C397" s="23"/>
-    </row>
-    <row r="398" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A398" s="23"/>
-      <c r="B398" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="C398" s="23"/>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399" s="23"/>
-      <c r="B399" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C399" s="23"/>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400" s="23"/>
-      <c r="B400" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="C400" s="23"/>
-    </row>
-    <row r="401" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A401" s="23"/>
-      <c r="B401" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="C401" s="23"/>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" s="23"/>
-      <c r="B402" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="C402" s="23"/>
-    </row>
-    <row r="403" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A403" s="37"/>
-      <c r="B403" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C403" s="37"/>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="38"/>
-      <c r="B404" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C404" s="38"/>
-    </row>
-    <row r="405" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A405" s="39"/>
-      <c r="B405" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C405" s="39"/>
-    </row>
-    <row r="406" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A406" s="37"/>
-      <c r="B406" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C406" s="37"/>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="38"/>
-      <c r="B407" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C407" s="38"/>
-    </row>
-    <row r="408" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A408" s="39"/>
-      <c r="B408" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C408" s="39"/>
-    </row>
-    <row r="409" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A409" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="B409" s="41"/>
-      <c r="C409" s="42"/>
-    </row>
-    <row r="410" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A410" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B410" s="44"/>
-      <c r="C410" s="45"/>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411" s="38"/>
-      <c r="B411" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="C411" s="38"/>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412" s="38"/>
-      <c r="B412" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C412" s="38"/>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="38"/>
-      <c r="B413" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="C413" s="38"/>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414" s="38"/>
-      <c r="B414" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="C414" s="38"/>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="38"/>
-      <c r="B415" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="C415" s="38"/>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A416" s="39"/>
-      <c r="B416" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="C416" s="39"/>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A417" s="31"/>
-      <c r="B417" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="C417" s="31"/>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418" s="31"/>
-      <c r="B418" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="C418" s="31"/>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419" s="31"/>
-      <c r="B419" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="C419" s="31"/>
-    </row>
-    <row r="420" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A420" s="23"/>
-      <c r="B420" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="C420" s="23"/>
-    </row>
-    <row r="421" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A421" s="23"/>
-      <c r="B421" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="C421" s="23"/>
-    </row>
-    <row r="422" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A422" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B422" s="44"/>
-      <c r="C422" s="45"/>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A423" s="25"/>
-      <c r="B423" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C423" s="25"/>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424" s="23"/>
-      <c r="B424" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="C424" s="23"/>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A425" s="23"/>
-      <c r="B425" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="C425" s="23"/>
-    </row>
-    <row r="426" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A426" s="23"/>
-      <c r="B426" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="C426" s="23"/>
-    </row>
-    <row r="427" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A427" s="23"/>
-      <c r="B427" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="C427" s="23"/>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A428" s="23"/>
-      <c r="B428" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="C428" s="23"/>
-    </row>
-    <row r="429" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A429" s="23"/>
-      <c r="B429" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="C429" s="23"/>
-    </row>
-    <row r="430" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A430" s="37"/>
-      <c r="B430" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C430" s="37"/>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431" s="38"/>
-      <c r="B431" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C431" s="38"/>
-    </row>
-    <row r="432" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A432" s="39"/>
-      <c r="B432" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C432" s="39"/>
+      <c r="C430" s="32"/>
+    </row>
+    <row r="431" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A431" s="30"/>
+      <c r="B431" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C431" s="30"/>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="31"/>
+      <c r="B432" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C432" s="31"/>
     </row>
     <row r="433" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A433" s="37"/>
-      <c r="B433" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C433" s="37"/>
+      <c r="A433" s="32"/>
+      <c r="B433" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C433" s="32"/>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A434" s="38"/>
-      <c r="B434" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C434" s="38"/>
-    </row>
-    <row r="435" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A435" s="39"/>
-      <c r="B435" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C435" s="39"/>
-    </row>
-    <row r="436" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A436" s="37"/>
-      <c r="B436" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C436" s="37"/>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437" s="38"/>
-      <c r="B437" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="C437" s="38"/>
-    </row>
-    <row r="438" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A438" s="39"/>
-      <c r="B438" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="C438" s="39"/>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A439" s="23"/>
-      <c r="B439" s="24" t="s">
+      <c r="A434" s="21"/>
+      <c r="B434" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="C439" s="23"/>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A440" s="23"/>
-      <c r="B440" s="24" t="s">
+      <c r="C434" s="21"/>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="21"/>
+      <c r="B435" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="C440" s="23"/>
+      <c r="C435" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="164">
@@ -4972,18 +4876,18 @@
     <mergeCell ref="C169:C170"/>
     <mergeCell ref="A171:A172"/>
     <mergeCell ref="C171:C172"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="C196:C197"/>
     <mergeCell ref="A173:A177"/>
     <mergeCell ref="C173:C177"/>
-    <mergeCell ref="A187:C187"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A195:A196"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="C194:C195"/>
     <mergeCell ref="C155:C156"/>
     <mergeCell ref="A157:A158"/>
     <mergeCell ref="C157:C158"/>
@@ -4993,33 +4897,33 @@
     <mergeCell ref="C161:C162"/>
     <mergeCell ref="A163:A164"/>
     <mergeCell ref="C163:C164"/>
-    <mergeCell ref="A295:A297"/>
-    <mergeCell ref="C295:C297"/>
-    <mergeCell ref="A292:A294"/>
-    <mergeCell ref="C292:C294"/>
-    <mergeCell ref="A317:A319"/>
-    <mergeCell ref="C317:C319"/>
-    <mergeCell ref="A324:A326"/>
-    <mergeCell ref="C324:C326"/>
-    <mergeCell ref="A327:A329"/>
-    <mergeCell ref="C327:C329"/>
-    <mergeCell ref="A320:A321"/>
-    <mergeCell ref="C320:C321"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="C322:C323"/>
-    <mergeCell ref="A286:A288"/>
-    <mergeCell ref="C286:C288"/>
-    <mergeCell ref="A289:A291"/>
-    <mergeCell ref="C289:C291"/>
-    <mergeCell ref="A277:A279"/>
-    <mergeCell ref="C277:C279"/>
-    <mergeCell ref="A280:A282"/>
-    <mergeCell ref="C280:C282"/>
-    <mergeCell ref="A283:A285"/>
-    <mergeCell ref="C283:C285"/>
+    <mergeCell ref="A290:A292"/>
+    <mergeCell ref="C290:C292"/>
+    <mergeCell ref="A287:A289"/>
+    <mergeCell ref="C287:C289"/>
+    <mergeCell ref="A312:A314"/>
+    <mergeCell ref="C312:C314"/>
+    <mergeCell ref="A319:A321"/>
+    <mergeCell ref="C319:C321"/>
+    <mergeCell ref="A322:A324"/>
+    <mergeCell ref="C322:C324"/>
+    <mergeCell ref="A315:A316"/>
+    <mergeCell ref="C315:C316"/>
+    <mergeCell ref="A317:A318"/>
+    <mergeCell ref="C317:C318"/>
+    <mergeCell ref="A281:A283"/>
+    <mergeCell ref="C281:C283"/>
+    <mergeCell ref="A284:A286"/>
+    <mergeCell ref="C284:C286"/>
+    <mergeCell ref="A272:A274"/>
+    <mergeCell ref="C272:C274"/>
+    <mergeCell ref="A275:A277"/>
+    <mergeCell ref="C275:C277"/>
+    <mergeCell ref="A278:A280"/>
+    <mergeCell ref="C278:C280"/>
     <mergeCell ref="A35:A40"/>
     <mergeCell ref="C35:C40"/>
-    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A207:C207"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A15:A20"/>
@@ -5041,71 +4945,71 @@
     <mergeCell ref="A153:A154"/>
     <mergeCell ref="C153:C154"/>
     <mergeCell ref="A155:A156"/>
-    <mergeCell ref="A248:A250"/>
-    <mergeCell ref="C248:C250"/>
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="C243:C245"/>
+    <mergeCell ref="A246:A248"/>
+    <mergeCell ref="C246:C248"/>
+    <mergeCell ref="C219:C234"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="A209:A218"/>
+    <mergeCell ref="C209:C218"/>
+    <mergeCell ref="A269:A271"/>
+    <mergeCell ref="C269:C271"/>
+    <mergeCell ref="A260:A262"/>
+    <mergeCell ref="C260:C262"/>
+    <mergeCell ref="A263:A265"/>
+    <mergeCell ref="C263:C265"/>
+    <mergeCell ref="A266:A268"/>
+    <mergeCell ref="C266:C268"/>
     <mergeCell ref="A251:A253"/>
     <mergeCell ref="C251:C253"/>
-    <mergeCell ref="C224:C239"/>
-    <mergeCell ref="A240:A242"/>
-    <mergeCell ref="C240:C242"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="A245:C245"/>
-    <mergeCell ref="A214:A223"/>
-    <mergeCell ref="C214:C223"/>
-    <mergeCell ref="A274:A276"/>
-    <mergeCell ref="C274:C276"/>
-    <mergeCell ref="A265:A267"/>
-    <mergeCell ref="C265:C267"/>
-    <mergeCell ref="A268:A270"/>
-    <mergeCell ref="C268:C270"/>
-    <mergeCell ref="A271:A273"/>
-    <mergeCell ref="C271:C273"/>
-    <mergeCell ref="A256:A258"/>
-    <mergeCell ref="C256:C258"/>
-    <mergeCell ref="A259:A261"/>
-    <mergeCell ref="C259:C261"/>
-    <mergeCell ref="A262:A264"/>
-    <mergeCell ref="C262:C264"/>
-    <mergeCell ref="A349:C349"/>
+    <mergeCell ref="A254:A256"/>
+    <mergeCell ref="C254:C256"/>
+    <mergeCell ref="A257:A259"/>
+    <mergeCell ref="C257:C259"/>
+    <mergeCell ref="A344:C344"/>
+    <mergeCell ref="A334:A336"/>
+    <mergeCell ref="C334:C336"/>
+    <mergeCell ref="A337:C337"/>
+    <mergeCell ref="A338:C338"/>
     <mergeCell ref="A339:A341"/>
     <mergeCell ref="C339:C341"/>
-    <mergeCell ref="A342:C342"/>
-    <mergeCell ref="A343:C343"/>
-    <mergeCell ref="A344:A346"/>
-    <mergeCell ref="C344:C346"/>
-    <mergeCell ref="A330:A332"/>
-    <mergeCell ref="C330:C332"/>
-    <mergeCell ref="A333:A335"/>
-    <mergeCell ref="C333:C335"/>
-    <mergeCell ref="A336:A338"/>
-    <mergeCell ref="C336:C338"/>
-    <mergeCell ref="A368:C368"/>
-    <mergeCell ref="A373:A375"/>
-    <mergeCell ref="C373:C375"/>
-    <mergeCell ref="A376:A378"/>
-    <mergeCell ref="C376:C378"/>
-    <mergeCell ref="A359:C359"/>
-    <mergeCell ref="A360:A365"/>
-    <mergeCell ref="C360:C365"/>
-    <mergeCell ref="A350:A352"/>
-    <mergeCell ref="C350:C352"/>
-    <mergeCell ref="A353:A355"/>
-    <mergeCell ref="C353:C355"/>
-    <mergeCell ref="A358:C358"/>
-    <mergeCell ref="C411:C416"/>
-    <mergeCell ref="A386:C386"/>
-    <mergeCell ref="A387:A392"/>
-    <mergeCell ref="C387:C392"/>
-    <mergeCell ref="A395:C395"/>
-    <mergeCell ref="A403:A405"/>
-    <mergeCell ref="C403:C405"/>
-    <mergeCell ref="A379:A381"/>
-    <mergeCell ref="C379:C381"/>
-    <mergeCell ref="A382:A384"/>
-    <mergeCell ref="C382:C384"/>
-    <mergeCell ref="A385:C385"/>
-    <mergeCell ref="A436:A438"/>
-    <mergeCell ref="C436:C438"/>
+    <mergeCell ref="A325:A327"/>
+    <mergeCell ref="C325:C327"/>
+    <mergeCell ref="A328:A330"/>
+    <mergeCell ref="C328:C330"/>
+    <mergeCell ref="A331:A333"/>
+    <mergeCell ref="C331:C333"/>
+    <mergeCell ref="A363:C363"/>
+    <mergeCell ref="A368:A370"/>
+    <mergeCell ref="C368:C370"/>
+    <mergeCell ref="A371:A373"/>
+    <mergeCell ref="C371:C373"/>
+    <mergeCell ref="A354:C354"/>
+    <mergeCell ref="A355:A360"/>
+    <mergeCell ref="C355:C360"/>
+    <mergeCell ref="A345:A347"/>
+    <mergeCell ref="C345:C347"/>
+    <mergeCell ref="A348:A350"/>
+    <mergeCell ref="C348:C350"/>
+    <mergeCell ref="A353:C353"/>
+    <mergeCell ref="C406:C411"/>
+    <mergeCell ref="A381:C381"/>
+    <mergeCell ref="A382:A387"/>
+    <mergeCell ref="C382:C387"/>
+    <mergeCell ref="A390:C390"/>
+    <mergeCell ref="A398:A400"/>
+    <mergeCell ref="C398:C400"/>
+    <mergeCell ref="A374:A376"/>
+    <mergeCell ref="C374:C376"/>
+    <mergeCell ref="A377:A379"/>
+    <mergeCell ref="C377:C379"/>
+    <mergeCell ref="A380:C380"/>
+    <mergeCell ref="A431:A433"/>
+    <mergeCell ref="C431:C433"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A43:A54"/>
@@ -5118,16 +5022,16 @@
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A422:C422"/>
-    <mergeCell ref="A430:A432"/>
-    <mergeCell ref="C430:C432"/>
-    <mergeCell ref="A433:A435"/>
-    <mergeCell ref="C433:C435"/>
-    <mergeCell ref="A406:A408"/>
-    <mergeCell ref="C406:C408"/>
-    <mergeCell ref="A409:C409"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A411:A416"/>
+    <mergeCell ref="A417:C417"/>
+    <mergeCell ref="A425:A427"/>
+    <mergeCell ref="C425:C427"/>
+    <mergeCell ref="A428:A430"/>
+    <mergeCell ref="C428:C430"/>
+    <mergeCell ref="A401:A403"/>
+    <mergeCell ref="C401:C403"/>
+    <mergeCell ref="A404:C404"/>
+    <mergeCell ref="A405:C405"/>
+    <mergeCell ref="A406:A411"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Fuctionality&Requirements/ProgramFunctionality/WorkSupplier.xlsx
+++ b/Fuctionality&Requirements/ProgramFunctionality/WorkSupplier.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4E86D8-3AC1-4FE2-BDFE-E90335B07A00}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE74865-6826-42ED-899E-CC646398EFED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12315" yWindow="705" windowWidth="16485" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11865" yWindow="615" windowWidth="16485" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WorkSupplierMaint" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="293">
   <si>
     <t>№</t>
   </si>
@@ -267,9 +267,6 @@
     <t>If the user clicks on the "Tree" button near the "Work supp. Key" field then the next program should open:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (apicbf) work_supplier_tree</t>
-  </si>
-  <si>
     <t>The user should be able to select the work supplier from (browse) work_supplier program. The key of the selected supplier should be displayed in the "Work supp.key" field. Other fields should be filled by the correspond values, those are connected to the selected work supplier.</t>
   </si>
   <si>
@@ -294,42 +291,27 @@
     <t>If the user clicks on the "Point and Shoot" button near the "Capacity group" field, then the next program should open:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) capacity_group</t>
-  </si>
-  <si>
     <t>The user should be able to select the capacity group from (browse) capacity_group program. The key of the capacity group should be displayed in the "Capacity group" field. If the user select a new value in the "Capacity" field, the "Work supplier" program should switch to edit mode.</t>
   </si>
   <si>
     <t>If the user clicks on the "Point and Shoot" button near the "Wsupp. Group key" field, then the next program should open:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) ws_group</t>
-  </si>
-  <si>
     <t>The user should be able to select the work supplier group from (browse) ws_group  program. The key of the work supplier group should be displayed in the "Wsupp. group key" field. If the user select a new value in the "Wsupp. group key" field, the "Work supplier" program should switch to edit mode.</t>
   </si>
   <si>
     <t>If the user clicks on the "Point and Shoot" button near the "Cost type key" field, then the next program should open:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) cost_type</t>
-  </si>
-  <si>
     <t>The user should be able to select the cost type from (browse) cost_type  program. The key of the cost type should be displayed in the "Cost type key" field. If the user select a new value in the "Cost type key" field, the "Work supplier" program should switch to edit mode.</t>
   </si>
   <si>
     <t>If the user clicks on the "Point and Shoot" button near the "Supplier key" field, then the next program should open:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) supplier</t>
-  </si>
-  <si>
     <t>The user should be able to select the supplier from (browse) supplier  program. The key of the supplier should be displayed in the "Supplier key" field. If the user select a new value in the "Supplier key" field, the "Work supplier" program should switch to edit mode.</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) account</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Point and Shoot" button near the "Credit account" field, then the next program should open:</t>
   </si>
   <si>
@@ -345,27 +327,18 @@
     <t>If the user clicks on the "Point and Shoot" button near the "Category" field, then the next program should open:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) work_category</t>
-  </si>
-  <si>
     <t>The user should be able to select the credit account from (browse) work_category  program. The key of the account should be displayed in the "Category" field. If the user select a new value in the "Category" field, the "Work supplier" program should switch to edit mode.</t>
   </si>
   <si>
     <t>If the user clicks on the "Point and Shoot" button near the "Maint. Object key" field, then the next program should open:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) maintenance_object</t>
-  </si>
-  <si>
     <t xml:space="preserve">The user should be able to select the work supplier from (apicbf) work_supplier_tree program. The key of the selected supplier should be displayed in the "Root key" field. </t>
   </si>
   <si>
     <t>If the user clicks on the "Tree" button near the "Maint. Object key" field, then the next program should open:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (apicbf) maintenance_object_tree </t>
-  </si>
-  <si>
     <t>The user should be able to select the maintenance object from (browse) maintenance_object  program. The key of the maintenance object should be displayed in the "Maint. object key" field. If the user select a new value in the "Maint. object key" field, the "Work supplier" program should switch to edit mode.</t>
   </si>
   <si>
@@ -390,12 +363,6 @@
     <t>If the user clicks on the "Point and Shoot" button near the "Site" field, then the next program should open:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) plant</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (browse) site</t>
-  </si>
-  <si>
     <t>The user should be able to select the site from (browse) site program. The key of the site should be displayed in the "Site" field.</t>
   </si>
   <si>
@@ -417,69 +384,42 @@
     <t>The user shoul be able to press the "Work orders" button. If the user presses this button the next program should open:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) planned_worksupp [3]</t>
-  </si>
-  <si>
     <t>The list of the work orders these are connected to the selected work supplier should be displayed in this program</t>
   </si>
   <si>
     <t>The user shoul be able to press the "Workload" button. If the user presses this button the next program should open:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) workload [1]</t>
-  </si>
-  <si>
     <t>The user shoul be able to press the "Month view" button. If the user presses this button the next program should open:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) month_calendar</t>
-  </si>
-  <si>
     <t>The user shoul be able to press the "Shift exceptions" button. If the user presses this button the next program should open:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) exception [2] </t>
-  </si>
-  <si>
     <t>The user shoul be able to press the "Cap.gr. exceptions" button. If the user presses this button the next program should open:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) capacity_group_exception [2] </t>
-  </si>
-  <si>
     <t>The user shoul be able to press the "Shift view" button. If the user presses this button the next program should open:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) shifview</t>
-  </si>
-  <si>
     <t>The list of the shifts for the selected work supplier should be displayed in this program</t>
   </si>
   <si>
     <t>The user shoul be able to press the "Reg. hours" button. If the user presses this button the next program should open:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) transactions [1] </t>
-  </si>
-  <si>
     <t>The list of the working hours for the selected work supplier should be displayed in this program</t>
   </si>
   <si>
     <t>The user shoul be able to press the "Skills" button. If the user presses this button the next program should open:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) skill_ws_combination</t>
-  </si>
-  <si>
     <t>The list of the skills for the selected work supplier should be displayed in this program</t>
   </si>
   <si>
     <t>The user shoul be able to press the "Training" button. If the user presses this button the next program should open:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) skill_ws_certificate</t>
-  </si>
-  <si>
     <t>Thetraining history for the selected work supplier should be displayed in this program</t>
   </si>
   <si>
@@ -576,18 +516,12 @@
     <t>If the user clicks on the "Point and Shoot" button near the "Address Key" field then the next program should open:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) location</t>
-  </si>
-  <si>
     <t xml:space="preserve">The user should be able to select the address from (browse) location program. The key of the selected address should be displayed in the "Address key" field. </t>
   </si>
   <si>
     <t>If the user clicks on the "Point and Shoot" button near the "Contact person" field then the next program should open:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) contact_person</t>
-  </si>
-  <si>
     <t>The user should be able to select the contact person from (browse) contact_person program. The key of the selected contact person should be displayed in the "Contact person" field.  The "Telephone" and "E-mail" fields should be inherited from the "Contact person" field.</t>
   </si>
   <si>
@@ -675,9 +609,6 @@
     <t>If the user clicks on the "Point and Shoot" button near the "Shift plan key" field then the next program should open:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) shift_plan</t>
-  </si>
-  <si>
     <t>The user should be able to select the shift plan from (browse) shift_plan program. The key of the selected shift plan should be displayed in the "Shift plan key" field.</t>
   </si>
   <si>
@@ -729,27 +660,15 @@
     <t>If the user click on the "Note" item the next program should open for the selected work supplier:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (maint) note</t>
-  </si>
-  <si>
     <t>If the user click on the "Documents" item the next program should open for the selected work supplier:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) drawing_combination</t>
-  </si>
-  <si>
     <t>If the user click on the "Address" item the next program should open for the selected work supplier:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) location_combination</t>
-  </si>
-  <si>
     <t>If the user click on the "Contacts" item the next program should open for the selected work supplier:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) contact_combination</t>
-  </si>
-  <si>
     <t>If the user click on the "Enable design" the program should switch to "Edit design" mode.</t>
   </si>
   <si>
@@ -840,114 +759,15 @@
     <t>If the user clicks on the "Refresh" button the program window should be refreshed.</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (maint) work_supplier if the user is focused on the "Work supplier key" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (maint) site if the user is focused on the "Site" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (maint) plant if the user is focused on the "Plant key" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (maint) work_supplier if the user is focused on the "Root key" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (maint) capacity_group if the user is focused on the "capacity group" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (maint) ws_group if the user is focused on the "Wsupp. Group key" field</t>
-  </si>
-  <si>
     <t>If the user clicks on the "View detailed information" the program that should be opened depends on the field to which the user is focused. The next programs should open for the correspond values in fields:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (maint) cost_type if the user is focused on the "Cost type key" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (maint) supplier if the user is focused on the "Supplier key" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (maint) account if the user is focused on the " Credit account" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (maint) account if the user is focused on the " Debit account" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (maint) work_category if the user is focused on the "Category" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (maint) maintenance_object if the user is focused on the "Maint. Object key" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (maint) location if the user is focused on the "Address key" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (maint) contact_person if the user is focused on the "Contact person" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (maint) shift_plan if the user is focused on the "Shift plan key" field</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Point and shoot" the program that should be opened depends on the field to which the user is focused. The next programs should open for the correspond values in fields:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) plant if the user is focused on the "Plant key" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (browse) site if the user is focused on the "Site" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (browse) work_supplier if the user is focused on the "Work supplier key" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (browse) work_supplier if the user is focused on the "Root key" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (browse) capacity_group if the user is focused on the "capacity group" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (browse) ws_group if the user is focused on the "Wsupp. Group key" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (browse) cost_type if the user is focused on the "Cost type key" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (browse) supplier if the user is focused on the "Supplier key" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (browse) account if the user is focused on the " Credit account" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (browse) account if the user is focused on the " Debit account" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (browse) work_category if the user is focused on the "Category" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (browse) maintenance_object if the user is focused on the "Maint. Object key" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (browse) location if the user is focused on the "Address key" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (browse) contact_person if the user is focused on the "Contact person" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (browse) shift_plan if the user is focused on the "Shift plan key" field</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Tree" the program that should be opened depends on the field to which the user is focused. The next programs should open for the correspond values in fields:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (apicbf) work_supplier_tree if the user is focused on the "Work supp. Key" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (apicbf) work_supplier_tree if the user is focused on the "Root key" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (apicbf) maintenance_object_tree if the user is focused on the "Maint. Object key" field</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Tab on the next page" item the next tab should be opened in the program window.</t>
   </si>
   <si>
@@ -981,12 +801,6 @@
     <t>If the user clicks on the "Shift exceptions" item the next program should be opened for the selected work supplier:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) exception [2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (browse) capacity_group_exception [2]</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Capacity group exceptions" item the next program should be opened for the selected work supplier:</t>
   </si>
   <si>
@@ -996,18 +810,12 @@
     <t>If the user clicks on the "Reg. hours" item the next program should be opened for the selected work supplier:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) transactions [1]</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Skills" item the next program should be opened for the selected work supplier:</t>
   </si>
   <si>
     <t>If the user clicks on the "Training cert." item the next program should be opened for the selected work supplier:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) api_audit_entry</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Change log" item the next program should be opened for the selected work supplier:</t>
   </si>
   <si>
@@ -1105,6 +913,9 @@
   </si>
   <si>
     <t>User should be able to enter any characters into the "Custom bar code" field</t>
+  </si>
+  <si>
+    <t>There should be the "Point and Shoot" buttons near the next fields: Work supp. Key, Shift plan key.</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1458,95 +1269,116 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1565,11 +1397,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1584,22 +1413,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1882,17 +1699,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C435"/>
+  <dimension ref="A2:C432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404:C404"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B440" sqref="B440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1908,18 +1725,18 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="28" t="str">
+      <c r="C5" s="27" t="str">
         <f t="shared" ref="C5:C11" si="0">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85854","C85854")</f>
         <v>C85854</v>
       </c>
@@ -1929,7 +1746,7 @@
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="29" t="str">
+      <c r="C6" s="28" t="str">
         <f t="shared" si="0"/>
         <v>C85854</v>
       </c>
@@ -1939,7 +1756,7 @@
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="29" t="str">
+      <c r="C7" s="28" t="str">
         <f t="shared" si="0"/>
         <v>C85854</v>
       </c>
@@ -1949,7 +1766,7 @@
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="29" t="str">
+      <c r="C8" s="28" t="str">
         <f t="shared" si="0"/>
         <v>C85854</v>
       </c>
@@ -1959,7 +1776,7 @@
       <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="29" t="str">
+      <c r="C9" s="28" t="str">
         <f t="shared" si="0"/>
         <v>C85854</v>
       </c>
@@ -1969,7 +1786,7 @@
       <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="29" t="str">
+      <c r="C10" s="28" t="str">
         <f t="shared" si="0"/>
         <v>C85854</v>
       </c>
@@ -1979,24 +1796,24 @@
       <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="30" t="str">
+      <c r="C11" s="29" t="str">
         <f t="shared" si="0"/>
         <v>C85854</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="28" t="str">
+      <c r="C13" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85854","C85854")</f>
         <v>C85854</v>
       </c>
@@ -2006,427 +1823,431 @@
       <c r="B14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="29" t="str">
+      <c r="C14" s="28" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85854","C85854")</f>
         <v>C85854</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="54" t="str">
+      <c r="C15" s="61" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85854","C85854")</f>
         <v>C85854</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="39"/>
+      <c r="C16" s="46"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="39"/>
+      <c r="C17" s="46"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="39"/>
+      <c r="C18" s="46"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="39"/>
+      <c r="C19" s="46"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="39"/>
+      <c r="C20" s="46"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="58" t="str">
+      <c r="C21" s="65" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85854","C85854")</f>
         <v>C85854</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="59"/>
+      <c r="C22" s="66"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="59"/>
+      <c r="C23" s="66"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="59"/>
+      <c r="C24" s="66"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="59"/>
+      <c r="C25" s="66"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="59"/>
+      <c r="C26" s="66"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="59"/>
+      <c r="C27" s="66"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="59"/>
+      <c r="C28" s="66"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="63"/>
       <c r="B29" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="59"/>
+      <c r="C29" s="66"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="A30" s="63"/>
       <c r="B30" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="59"/>
+      <c r="C30" s="66"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+      <c r="A31" s="63"/>
       <c r="B31" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="59"/>
+      <c r="C31" s="66"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
+      <c r="A32" s="63"/>
       <c r="B32" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="59"/>
+      <c r="C32" s="66"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
+      <c r="A33" s="63"/>
       <c r="B33" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="59"/>
+      <c r="C33" s="66"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="60"/>
+      <c r="C34" s="67"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="36" t="str">
+      <c r="C35" s="43" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85854","C85854")</f>
         <v>C85854</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="53"/>
+      <c r="C36" s="60"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="60"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="53"/>
+      <c r="C38" s="60"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
+      <c r="A39" s="59"/>
       <c r="B39" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="53"/>
+      <c r="C39" s="60"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="35"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="37"/>
+      <c r="C40" s="44"/>
     </row>
     <row r="41" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="42"/>
+      <c r="A41" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" s="48"/>
+      <c r="C41" s="49"/>
     </row>
     <row r="42" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="45"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="52"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
+      <c r="A43" s="71"/>
       <c r="B43" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="C43" s="66" t="str">
+        <v>194</v>
+      </c>
+      <c r="C43" s="72" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85856","C85856")</f>
         <v>C85856</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="53"/>
+      <c r="C44" s="60"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="53"/>
+      <c r="C45" s="60"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="C46" s="53"/>
+        <v>195</v>
+      </c>
+      <c r="C46" s="60"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="52"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="53"/>
+      <c r="C47" s="60"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="52"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="53"/>
+      <c r="C48" s="60"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="52"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="C49" s="53"/>
+        <v>196</v>
+      </c>
+      <c r="C49" s="60"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="52"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="C50" s="53"/>
+        <v>197</v>
+      </c>
+      <c r="C50" s="60"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="52"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="C51" s="53"/>
+        <v>198</v>
+      </c>
+      <c r="C51" s="60"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="52"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C52" s="53"/>
+        <v>199</v>
+      </c>
+      <c r="C52" s="60"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="52"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="C53" s="53"/>
+        <v>200</v>
+      </c>
+      <c r="C53" s="60"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="37"/>
+      <c r="C54" s="44"/>
     </row>
     <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
+      <c r="A55" s="25"/>
       <c r="B55" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C55" s="29" t="str">
+        <v>201</v>
+      </c>
+      <c r="C55" s="28" t="str">
         <f t="shared" ref="C55:C60" si="1">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85856","C85856")</f>
         <v>C85856</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C56" s="29" t="str">
+        <v>202</v>
+      </c>
+      <c r="C56" s="28" t="str">
         <f t="shared" si="1"/>
         <v>C85856</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C57" s="29" t="str">
+        <v>203</v>
+      </c>
+      <c r="C57" s="28" t="str">
         <f t="shared" si="1"/>
         <v>C85856</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="C58" s="29" t="str">
+        <v>204</v>
+      </c>
+      <c r="C58" s="28" t="str">
         <f t="shared" si="1"/>
         <v>C85856</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="C59" s="29" t="str">
+        <v>205</v>
+      </c>
+      <c r="C59" s="28" t="str">
         <f t="shared" si="1"/>
         <v>C85856</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
+      <c r="A60" s="41"/>
       <c r="B60" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C60" s="36" t="str">
+        <v>206</v>
+      </c>
+      <c r="C60" s="43" t="str">
         <f t="shared" si="1"/>
         <v>C85856</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
-      <c r="B61" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C61" s="37"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B663"," - (maint) note")</f>
+        <v xml:space="preserve"> - (maint) note</v>
+      </c>
+      <c r="C61" s="44"/>
     </row>
     <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
+      <c r="A62" s="41"/>
       <c r="B62" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="C62" s="36" t="str">
+        <v>207</v>
+      </c>
+      <c r="C62" s="43" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85856","C85856")</f>
         <v>C85856</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
-      <c r="B63" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C63" s="37"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B306"," - (browse) drawing_combination")</f>
+        <v xml:space="preserve"> - (browse) drawing_combination</v>
+      </c>
+      <c r="C63" s="44"/>
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
+      <c r="A64" s="41"/>
       <c r="B64" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="C64" s="36" t="str">
+        <v>208</v>
+      </c>
+      <c r="C64" s="43" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85856","C85856")</f>
         <v>C85856</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
-      <c r="B65" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C65" s="37"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B578"," - (browse) location_combination")</f>
+        <v xml:space="preserve"> - (browse) location_combination</v>
+      </c>
+      <c r="C65" s="44"/>
     </row>
     <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="34"/>
+      <c r="A66" s="41"/>
       <c r="B66" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="C66" s="36" t="str">
+        <v>209</v>
+      </c>
+      <c r="C66" s="43" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85856","C85856")</f>
         <v>C85856</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
-      <c r="B67" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C67" s="37"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B172"," - (browse) contact_combination")</f>
+        <v xml:space="preserve"> - (browse) contact_combination</v>
+      </c>
+      <c r="C67" s="44"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="C68" s="29" t="str">
+        <v>211</v>
+      </c>
+      <c r="C68" s="28" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85856","C85856")</f>
         <v>C85856</v>
       </c>
@@ -2434,9 +2255,9 @@
     <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="C69" s="29" t="str">
+        <v>210</v>
+      </c>
+      <c r="C69" s="28" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85856","C85856")</f>
         <v>C85856</v>
       </c>
@@ -2444,9 +2265,9 @@
     <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="C70" s="29" t="str">
+        <v>212</v>
+      </c>
+      <c r="C70" s="28" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85856","C85856")</f>
         <v>C85856</v>
       </c>
@@ -2454,64 +2275,64 @@
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="C71" s="29" t="str">
+        <v>213</v>
+      </c>
+      <c r="C71" s="28" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85856","C85856")</f>
         <v>C85856</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="34"/>
+      <c r="A72" s="41"/>
       <c r="B72" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="C72" s="36" t="str">
+        <v>214</v>
+      </c>
+      <c r="C72" s="43" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85858","C85858")</f>
         <v>C85858</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="52"/>
+      <c r="A73" s="59"/>
       <c r="B73" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="53"/>
+      <c r="C73" s="60"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="52"/>
+      <c r="A74" s="59"/>
       <c r="B74" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="C74" s="53"/>
+        <v>215</v>
+      </c>
+      <c r="C74" s="60"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="52"/>
+      <c r="A75" s="59"/>
       <c r="B75" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C75" s="53"/>
+        <v>216</v>
+      </c>
+      <c r="C75" s="60"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="52"/>
+      <c r="A76" s="59"/>
       <c r="B76" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="C76" s="53"/>
+        <v>217</v>
+      </c>
+      <c r="C76" s="60"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="35"/>
+      <c r="A77" s="42"/>
       <c r="B77" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C77" s="37"/>
+        <v>218</v>
+      </c>
+      <c r="C77" s="44"/>
     </row>
     <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="C78" s="29" t="str">
+        <v>219</v>
+      </c>
+      <c r="C78" s="28" t="str">
         <f t="shared" ref="C78:C83" si="2">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85858","C85858")</f>
         <v>C85858</v>
       </c>
@@ -2519,9 +2340,9 @@
     <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="C79" s="29" t="str">
+        <v>220</v>
+      </c>
+      <c r="C79" s="28" t="str">
         <f t="shared" si="2"/>
         <v>C85858</v>
       </c>
@@ -2529,9 +2350,9 @@
     <row r="80" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="C80" s="29" t="str">
+        <v>221</v>
+      </c>
+      <c r="C80" s="28" t="str">
         <f t="shared" si="2"/>
         <v>C85858</v>
       </c>
@@ -2539,9 +2360,9 @@
     <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C81" s="29" t="str">
+        <v>222</v>
+      </c>
+      <c r="C81" s="28" t="str">
         <f t="shared" si="2"/>
         <v>C85858</v>
       </c>
@@ -2549,9 +2370,9 @@
     <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="C82" s="29" t="str">
+        <v>223</v>
+      </c>
+      <c r="C82" s="28" t="str">
         <f t="shared" si="2"/>
         <v>C85858</v>
       </c>
@@ -2559,92 +2380,92 @@
     <row r="83" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="C83" s="29" t="str">
+        <v>224</v>
+      </c>
+      <c r="C83" s="28" t="str">
         <f t="shared" si="2"/>
         <v>C85858</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="34"/>
+      <c r="A84" s="41"/>
       <c r="B84" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="C84" s="36" t="str">
+        <v>225</v>
+      </c>
+      <c r="C84" s="43" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86003","C86003")</f>
         <v>C86003</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="52"/>
+      <c r="A85" s="59"/>
       <c r="B85" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C85" s="53"/>
+      <c r="C85" s="60"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="52"/>
+      <c r="A86" s="59"/>
       <c r="B86" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C86" s="53"/>
+      <c r="C86" s="60"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="52"/>
+      <c r="A87" s="59"/>
       <c r="B87" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C87" s="53"/>
+      <c r="C87" s="60"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="52"/>
+      <c r="A88" s="59"/>
       <c r="B88" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C88" s="53"/>
+      <c r="C88" s="60"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="52"/>
+      <c r="A89" s="59"/>
       <c r="B89" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C89" s="53"/>
+      <c r="C89" s="60"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="52"/>
+      <c r="A90" s="59"/>
       <c r="B90" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="C90" s="53"/>
+        <v>226</v>
+      </c>
+      <c r="C90" s="60"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="52"/>
+      <c r="A91" s="59"/>
       <c r="B91" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="C91" s="53"/>
+        <v>227</v>
+      </c>
+      <c r="C91" s="60"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="52"/>
+      <c r="A92" s="59"/>
       <c r="B92" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="C92" s="53"/>
+        <v>228</v>
+      </c>
+      <c r="C92" s="60"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="35"/>
+      <c r="A93" s="42"/>
       <c r="B93" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C93" s="37"/>
+        <v>229</v>
+      </c>
+      <c r="C93" s="44"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="C94" s="29" t="str">
+        <v>230</v>
+      </c>
+      <c r="C94" s="28" t="str">
         <f t="shared" ref="C94:C104" si="3">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86003","C86003")</f>
         <v>C86003</v>
       </c>
@@ -2652,9 +2473,9 @@
     <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C95" s="29" t="str">
+        <v>231</v>
+      </c>
+      <c r="C95" s="28" t="str">
         <f t="shared" si="3"/>
         <v>C86003</v>
       </c>
@@ -2662,9 +2483,9 @@
     <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C96" s="29" t="str">
+        <v>232</v>
+      </c>
+      <c r="C96" s="28" t="str">
         <f t="shared" si="3"/>
         <v>C86003</v>
       </c>
@@ -2672,9 +2493,9 @@
     <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="20"/>
       <c r="B97" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="C97" s="29" t="str">
+        <v>233</v>
+      </c>
+      <c r="C97" s="28" t="str">
         <f t="shared" si="3"/>
         <v>C86003</v>
       </c>
@@ -2682,9 +2503,9 @@
     <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="C98" s="29" t="str">
+        <v>234</v>
+      </c>
+      <c r="C98" s="28" t="str">
         <f t="shared" si="3"/>
         <v>C86003</v>
       </c>
@@ -2692,9 +2513,9 @@
     <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="20"/>
       <c r="B99" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="C99" s="29" t="str">
+        <v>235</v>
+      </c>
+      <c r="C99" s="28" t="str">
         <f t="shared" si="3"/>
         <v>C86003</v>
       </c>
@@ -2702,9 +2523,9 @@
     <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="C100" s="29" t="str">
+        <v>236</v>
+      </c>
+      <c r="C100" s="28" t="str">
         <f t="shared" si="3"/>
         <v>C86003</v>
       </c>
@@ -2712,9 +2533,9 @@
     <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="C101" s="29" t="str">
+        <v>239</v>
+      </c>
+      <c r="C101" s="28" t="str">
         <f t="shared" si="3"/>
         <v>C86003</v>
       </c>
@@ -2722,9 +2543,9 @@
     <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="20"/>
       <c r="B102" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="C102" s="29" t="str">
+        <v>237</v>
+      </c>
+      <c r="C102" s="28" t="str">
         <f t="shared" si="3"/>
         <v>C86003</v>
       </c>
@@ -2732,932 +2553,979 @@
     <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="C103" s="29" t="str">
+        <v>238</v>
+      </c>
+      <c r="C103" s="28" t="str">
         <f t="shared" si="3"/>
         <v>C86003</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="55"/>
+      <c r="A104" s="62"/>
       <c r="B104" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="C104" s="58" t="str">
+        <v>240</v>
+      </c>
+      <c r="C104" s="65" t="str">
         <f t="shared" si="3"/>
         <v>C86003</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="56"/>
-      <c r="B105" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="C105" s="59"/>
+      <c r="A105" s="63"/>
+      <c r="B105" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B777"," - (maint) plant if the user is focused on the Plant key field")</f>
+        <v xml:space="preserve"> - (maint) plant if the user is focused on the Plant key field</v>
+      </c>
+      <c r="C105" s="66"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="56"/>
-      <c r="B106" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="C106" s="59"/>
+      <c r="A106" s="63"/>
+      <c r="B106" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B996"," - (maint) site if the user is focused on the Site field")</f>
+        <v xml:space="preserve"> - (maint) site if the user is focused on the Site field</v>
+      </c>
+      <c r="C106" s="66"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="56"/>
-      <c r="B107" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="C107" s="59"/>
+      <c r="A107" s="63"/>
+      <c r="B107" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1491"," - (maint) work_supplier if the user is focused on the Work supplier key field")</f>
+        <v xml:space="preserve"> - (maint) work_supplier if the user is focused on the Work supplier key field</v>
+      </c>
+      <c r="C107" s="66"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="56"/>
-      <c r="B108" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="C108" s="59"/>
+      <c r="A108" s="63"/>
+      <c r="B108" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1491"," - (maint) work_supplier if the user is focused on the Root key field")</f>
+        <v xml:space="preserve"> - (maint) work_supplier if the user is focused on the Root key field</v>
+      </c>
+      <c r="C108" s="66"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="56"/>
-      <c r="B109" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="C109" s="59"/>
+      <c r="A109" s="63"/>
+      <c r="B109" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B138"," - (maint) capacity_group if the user is focused on the Capacity group field")</f>
+        <v xml:space="preserve"> - (maint) capacity_group if the user is focused on the Capacity group field</v>
+      </c>
+      <c r="C109" s="66"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="56"/>
-      <c r="B110" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="C110" s="59"/>
+      <c r="A110" s="63"/>
+      <c r="B110" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1524"," - (maint) ws_group if the user is focused on the Wsupp. Group key field")</f>
+        <v xml:space="preserve"> - (maint) ws_group if the user is focused on the Wsupp. Group key field</v>
+      </c>
+      <c r="C110" s="66"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="56"/>
-      <c r="B111" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="C111" s="59"/>
+      <c r="A111" s="63"/>
+      <c r="B111" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B215"," - (maint) cost_type if the user is focused on the Cost type key field")</f>
+        <v xml:space="preserve"> - (maint) cost_type if the user is focused on the Cost type key field</v>
+      </c>
+      <c r="C111" s="66"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="56"/>
-      <c r="B112" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="C112" s="59"/>
+      <c r="A112" s="63"/>
+      <c r="B112" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1146"," - (maint) supplier if the user is focused on the Supplier key field")</f>
+        <v xml:space="preserve"> - (maint) supplier if the user is focused on the Supplier key field</v>
+      </c>
+      <c r="C112" s="66"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="56"/>
-      <c r="B113" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="C113" s="59"/>
+      <c r="A113" s="63"/>
+      <c r="B113" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B7"," - (maint) account if the user is focused on the Credit account field")</f>
+        <v xml:space="preserve"> - (maint) account if the user is focused on the Credit account field</v>
+      </c>
+      <c r="C113" s="66"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="56"/>
-      <c r="B114" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="C114" s="59"/>
+      <c r="A114" s="63"/>
+      <c r="B114" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B7"," - (maint) account if the user is focused on the Debit account field")</f>
+        <v xml:space="preserve"> - (maint) account if the user is focused on the Debit account field</v>
+      </c>
+      <c r="C114" s="66"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="56"/>
-      <c r="B115" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="C115" s="59"/>
-    </row>
-    <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="56"/>
-      <c r="B116" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="C116" s="59"/>
+      <c r="A115" s="63"/>
+      <c r="B115" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1393"," - (maint) work_category if the user is focused on the Category field")</f>
+        <v xml:space="preserve"> - (maint) work_category if the user is focused on the Category field</v>
+      </c>
+      <c r="C115" s="66"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="63"/>
+      <c r="B116" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B603"," - (maint) maintenance_object if the user is focused on the Maint. object key field")</f>
+        <v xml:space="preserve"> - (maint) maintenance_object if the user is focused on the Maint. object key field</v>
+      </c>
+      <c r="C116" s="66"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="56"/>
-      <c r="B117" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="C117" s="59"/>
+      <c r="A117" s="63"/>
+      <c r="B117" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B575"," - (maint) location if the user is focused on the Address key field")</f>
+        <v xml:space="preserve"> - (maint) location if the user is focused on the Address key field</v>
+      </c>
+      <c r="C117" s="66"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="56"/>
-      <c r="B118" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="C118" s="59"/>
+      <c r="A118" s="63"/>
+      <c r="B118" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B184"," - (maint) contact_person if the user is focused on the Contact person field")</f>
+        <v xml:space="preserve"> - (maint) contact_person if the user is focused on the Contact person field</v>
+      </c>
+      <c r="C118" s="66"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="57"/>
-      <c r="B119" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C119" s="60"/>
+      <c r="A119" s="64"/>
+      <c r="B119" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B971"," - (maint) shift_plan if the user is focused on the Shift plan key field")</f>
+        <v xml:space="preserve"> - (maint) shift_plan if the user is focused on the Shift plan key field</v>
+      </c>
+      <c r="C119" s="67"/>
     </row>
     <row r="120" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="34"/>
+      <c r="A120" s="41"/>
       <c r="B120" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="C120" s="36" t="str">
+        <v>241</v>
+      </c>
+      <c r="C120" s="43" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86003","C86003")</f>
         <v>C86003</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="52"/>
-      <c r="B121" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C121" s="53"/>
+      <c r="A121" s="59"/>
+      <c r="B121" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B776"," - (browse) plant if the user is focused on the Plant key field")</f>
+        <v xml:space="preserve"> - (browse) plant if the user is focused on the Plant key field</v>
+      </c>
+      <c r="C121" s="60"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="52"/>
-      <c r="B122" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="C122" s="53"/>
+      <c r="A122" s="59"/>
+      <c r="B122" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B994"," - (browse) site if the user is focused on the Site field")</f>
+        <v xml:space="preserve"> - (browse) site if the user is focused on the Site field</v>
+      </c>
+      <c r="C122" s="60"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="52"/>
-      <c r="B123" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="C123" s="53"/>
+      <c r="A123" s="59"/>
+      <c r="B123" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1485"," - (browse) work_supplier if the user is focused on the Work supplier key field")</f>
+        <v xml:space="preserve"> - (browse) work_supplier if the user is focused on the Work supplier key field</v>
+      </c>
+      <c r="C123" s="60"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="52"/>
-      <c r="B124" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="C124" s="53"/>
+      <c r="A124" s="59"/>
+      <c r="B124" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1485"," - (browse) work_supplier if the user is focused on the Root key field")</f>
+        <v xml:space="preserve"> - (browse) work_supplier if the user is focused on the Root key field</v>
+      </c>
+      <c r="C124" s="60"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="52"/>
-      <c r="B125" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C125" s="53"/>
+      <c r="A125" s="59"/>
+      <c r="B125" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B137"," - (browse) capacity_group if the user is focused on the capacity group field")</f>
+        <v xml:space="preserve"> - (browse) capacity_group if the user is focused on the capacity group field</v>
+      </c>
+      <c r="C125" s="60"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="52"/>
-      <c r="B126" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="C126" s="53"/>
+      <c r="A126" s="59"/>
+      <c r="B126" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1522","  - (browse) ws_group if the user is focused on the Wsupp. Group key field")</f>
+        <v xml:space="preserve">  - (browse) ws_group if the user is focused on the Wsupp. Group key field</v>
+      </c>
+      <c r="C126" s="60"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="52"/>
-      <c r="B127" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C127" s="53"/>
+      <c r="A127" s="59"/>
+      <c r="B127" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B211"," - (browse) cost_type if the user is focused on the Cost type key field")</f>
+        <v xml:space="preserve"> - (browse) cost_type if the user is focused on the Cost type key field</v>
+      </c>
+      <c r="C127" s="60"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="52"/>
-      <c r="B128" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="C128" s="53"/>
+      <c r="A128" s="59"/>
+      <c r="B128" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1143"," - (browse) supplier if the user is focused on the Supplier key field")</f>
+        <v xml:space="preserve"> - (browse) supplier if the user is focused on the Supplier key field</v>
+      </c>
+      <c r="C128" s="60"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="52"/>
-      <c r="B129" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C129" s="53"/>
+      <c r="A129" s="59"/>
+      <c r="B129" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B3"," - (browse) account if the user is focused on the Credit account field")</f>
+        <v xml:space="preserve"> - (browse) account if the user is focused on the Credit account field</v>
+      </c>
+      <c r="C129" s="60"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="52"/>
-      <c r="B130" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="C130" s="53"/>
+      <c r="A130" s="59"/>
+      <c r="B130" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B3"," - (browse) account if the user is focused on the Debit account field")</f>
+        <v xml:space="preserve"> - (browse) account if the user is focused on the Debit account field</v>
+      </c>
+      <c r="C130" s="60"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="52"/>
-      <c r="B131" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="C131" s="53"/>
-    </row>
-    <row r="132" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="52"/>
-      <c r="B132" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C132" s="53"/>
+      <c r="A131" s="59"/>
+      <c r="B131" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1391"," - (browse) work_category if the user is focused on the Category field")</f>
+        <v xml:space="preserve"> - (browse) work_category if the user is focused on the Category field</v>
+      </c>
+      <c r="C131" s="60"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="59"/>
+      <c r="B132" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B591"," - (browse) maintenance_object if the user is focused on the Maint. Object key field")</f>
+        <v xml:space="preserve"> - (browse) maintenance_object if the user is focused on the Maint. Object key field</v>
+      </c>
+      <c r="C132" s="60"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="52"/>
-      <c r="B133" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="C133" s="53"/>
+      <c r="A133" s="59"/>
+      <c r="B133" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B573","  - (browse) location if the user is focused on the Address key field")</f>
+        <v xml:space="preserve">  - (browse) location if the user is focused on the Address key field</v>
+      </c>
+      <c r="C133" s="60"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="52"/>
-      <c r="B134" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="C134" s="53"/>
+      <c r="A134" s="59"/>
+      <c r="B134" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B181"," - (browse) contact_person if the user is focused on the Contact person field")</f>
+        <v xml:space="preserve"> - (browse) contact_person if the user is focused on the Contact person field</v>
+      </c>
+      <c r="C134" s="60"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="35"/>
-      <c r="B135" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C135" s="37"/>
+      <c r="A135" s="42"/>
+      <c r="B135" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B969"," - (browse) shift_plan if the user is focused on the Shift plan key field")</f>
+        <v xml:space="preserve"> - (browse) shift_plan if the user is focused on the Shift plan key field</v>
+      </c>
+      <c r="C135" s="44"/>
     </row>
     <row r="136" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A136" s="34"/>
+      <c r="A136" s="41"/>
       <c r="B136" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="C136" s="36" t="str">
+        <v>242</v>
+      </c>
+      <c r="C136" s="43" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86003","C86003")</f>
         <v>C86003</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="52"/>
-      <c r="B137" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="C137" s="53"/>
+      <c r="A137" s="59"/>
+      <c r="B137" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1501"," - (apicbf) work_supplier_tree if the user is focused on the Work supp. Key field")</f>
+        <v xml:space="preserve"> - (apicbf) work_supplier_tree if the user is focused on the Work supp. Key field</v>
+      </c>
+      <c r="C137" s="60"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="52"/>
-      <c r="B138" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="C138" s="53"/>
-    </row>
-    <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="35"/>
-      <c r="B139" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C139" s="37"/>
+      <c r="A138" s="59"/>
+      <c r="B138" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1501"," - (apicbf) work_supplier_tree if the user is focused on the Root key field")</f>
+        <v xml:space="preserve"> - (apicbf) work_supplier_tree if the user is focused on the Root key field</v>
+      </c>
+      <c r="C138" s="60"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="42"/>
+      <c r="B139" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B618"," - (apicbf) maintenance_object_tree if the user is focused on the Maint. Object key field")</f>
+        <v xml:space="preserve"> - (apicbf) maintenance_object_tree if the user is focused on the Maint. Object key field</v>
+      </c>
+      <c r="C139" s="44"/>
     </row>
     <row r="140" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="C140" s="29" t="str">
+        <v>243</v>
+      </c>
+      <c r="C140" s="28" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86003","C86003")</f>
         <v>C86003</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="34"/>
+      <c r="A141" s="41"/>
       <c r="B141" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="C141" s="36" t="str">
+        <v>244</v>
+      </c>
+      <c r="C141" s="43" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86005","C86005")</f>
         <v>C86005</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="52"/>
+      <c r="A142" s="59"/>
       <c r="B142" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C142" s="53"/>
+      <c r="C142" s="60"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="52"/>
+      <c r="A143" s="59"/>
       <c r="B143" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C143" s="53"/>
+      <c r="C143" s="60"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="52"/>
+      <c r="A144" s="59"/>
       <c r="B144" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C144" s="53"/>
+      <c r="C144" s="60"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="52"/>
+      <c r="A145" s="59"/>
       <c r="B145" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C145" s="53"/>
+      <c r="C145" s="60"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="52"/>
+      <c r="A146" s="59"/>
       <c r="B146" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="C146" s="53"/>
+        <v>245</v>
+      </c>
+      <c r="C146" s="60"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="52"/>
+      <c r="A147" s="59"/>
       <c r="B147" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C147" s="53"/>
+        <v>246</v>
+      </c>
+      <c r="C147" s="60"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="52"/>
+      <c r="A148" s="59"/>
       <c r="B148" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C148" s="53"/>
+      <c r="C148" s="60"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="52"/>
+      <c r="A149" s="59"/>
       <c r="B149" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C149" s="53"/>
+      <c r="C149" s="60"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="52"/>
+      <c r="A150" s="59"/>
       <c r="B150" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="C150" s="53"/>
+        <v>247</v>
+      </c>
+      <c r="C150" s="60"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="35"/>
+      <c r="A151" s="42"/>
       <c r="B151" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C151" s="37"/>
+        <v>248</v>
+      </c>
+      <c r="C151" s="44"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="C152" s="29" t="str">
+        <v>249</v>
+      </c>
+      <c r="C152" s="28" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86005","C86005")</f>
         <v>C86005</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="34"/>
+      <c r="A153" s="41"/>
       <c r="B153" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="C153" s="36" t="str">
+        <v>250</v>
+      </c>
+      <c r="C153" s="43" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86005","C86005")</f>
         <v>C86005</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="35"/>
-      <c r="B154" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C154" s="37"/>
+      <c r="A154" s="42"/>
+      <c r="B154" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B762"," - (browse) planned_worksupp [3]")</f>
+        <v xml:space="preserve"> - (browse) planned_worksupp [3]</v>
+      </c>
+      <c r="C154" s="44"/>
     </row>
     <row r="155" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="34"/>
+      <c r="A155" s="41"/>
       <c r="B155" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="C155" s="36" t="str">
+        <v>251</v>
+      </c>
+      <c r="C155" s="43" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86005","C86005")</f>
         <v>C86005</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="35"/>
-      <c r="B156" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C156" s="37"/>
+      <c r="A156" s="42"/>
+      <c r="B156" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1510"," - (browse) workload [1]")</f>
+        <v xml:space="preserve"> - (browse) workload [1]</v>
+      </c>
+      <c r="C156" s="44"/>
     </row>
     <row r="157" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="34"/>
+      <c r="A157" s="41"/>
       <c r="B157" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="C157" s="36" t="str">
+        <v>252</v>
+      </c>
+      <c r="C157" s="43" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86005","C86005")</f>
         <v>C86005</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="35"/>
-      <c r="B158" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C158" s="37"/>
+      <c r="A158" s="42"/>
+      <c r="B158" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1537"," - (browse) month_calendar")</f>
+        <v xml:space="preserve"> - (browse) month_calendar</v>
+      </c>
+      <c r="C158" s="44"/>
     </row>
     <row r="159" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="34"/>
+      <c r="A159" s="41"/>
       <c r="B159" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="C159" s="36" t="str">
+        <v>253</v>
+      </c>
+      <c r="C159" s="43" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86005","C86005")</f>
         <v>C86005</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="35"/>
-      <c r="B160" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C160" s="37"/>
+      <c r="A160" s="42"/>
+      <c r="B160" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B361"," - (browse) exception [2]")</f>
+        <v xml:space="preserve"> - (browse) exception [2]</v>
+      </c>
+      <c r="C160" s="44"/>
     </row>
     <row r="161" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="34"/>
+      <c r="A161" s="41"/>
       <c r="B161" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="C161" s="36" t="str">
+        <v>254</v>
+      </c>
+      <c r="C161" s="43" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86005","C86005")</f>
         <v>C86005</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="35"/>
-      <c r="B162" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C162" s="37"/>
+      <c r="A162" s="42"/>
+      <c r="B162" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B141"," - (browse) capacity_group_exception [2]")</f>
+        <v xml:space="preserve"> - (browse) capacity_group_exception [2]</v>
+      </c>
+      <c r="C162" s="44"/>
     </row>
     <row r="163" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="34"/>
+      <c r="A163" s="41"/>
       <c r="B163" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="C163" s="36" t="str">
+        <v>255</v>
+      </c>
+      <c r="C163" s="43" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86005","C86005")</f>
         <v>C86005</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="35"/>
-      <c r="B164" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C164" s="37"/>
+      <c r="A164" s="42"/>
+      <c r="B164" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B986"," - (browse) shifview")</f>
+        <v xml:space="preserve"> - (browse) shifview</v>
+      </c>
+      <c r="C164" s="44"/>
     </row>
     <row r="165" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="34"/>
+      <c r="A165" s="41"/>
       <c r="B165" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="C165" s="36" t="str">
+        <v>256</v>
+      </c>
+      <c r="C165" s="43" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86005","C86005")</f>
         <v>C86005</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="35"/>
-      <c r="B166" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C166" s="37"/>
+      <c r="A166" s="42"/>
+      <c r="B166" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1235"," - (browse) transactions [1]")</f>
+        <v xml:space="preserve"> - (browse) transactions [1]</v>
+      </c>
+      <c r="C166" s="44"/>
     </row>
     <row r="167" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="34"/>
+      <c r="A167" s="41"/>
       <c r="B167" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="C167" s="36" t="str">
+        <v>257</v>
+      </c>
+      <c r="C167" s="43" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86005","C86005")</f>
         <v>C86005</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="35"/>
-      <c r="B168" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C168" s="37"/>
+      <c r="A168" s="42"/>
+      <c r="B168" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1016"," - (browse) skill_ws_combination")</f>
+        <v xml:space="preserve"> - (browse) skill_ws_combination</v>
+      </c>
+      <c r="C168" s="44"/>
     </row>
     <row r="169" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="34"/>
+      <c r="A169" s="41"/>
       <c r="B169" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="C169" s="36" t="str">
+        <v>258</v>
+      </c>
+      <c r="C169" s="43" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86005","C86005")</f>
         <v>C86005</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="35"/>
-      <c r="B170" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C170" s="37"/>
+      <c r="A170" s="42"/>
+      <c r="B170" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1012"," - (browse) skill_ws_certificate")</f>
+        <v xml:space="preserve"> - (browse) skill_ws_certificate</v>
+      </c>
+      <c r="C170" s="44"/>
     </row>
     <row r="171" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="34"/>
+      <c r="A171" s="41"/>
       <c r="B171" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="C171" s="36" t="str">
+        <v>259</v>
+      </c>
+      <c r="C171" s="43" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86005","C86005")</f>
         <v>C86005</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="35"/>
-      <c r="B172" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C172" s="37"/>
+      <c r="A172" s="42"/>
+      <c r="B172" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B53"," - (browse) api_audit_entry")</f>
+        <v xml:space="preserve"> - (browse) api_audit_entry</v>
+      </c>
+      <c r="C172" s="44"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="38"/>
+      <c r="A173" s="45"/>
       <c r="B173" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="C173" s="39"/>
+        <v>260</v>
+      </c>
+      <c r="C173" s="46"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="38"/>
+      <c r="A174" s="45"/>
       <c r="B174" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="C174" s="39"/>
+        <v>261</v>
+      </c>
+      <c r="C174" s="46"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="38"/>
+      <c r="A175" s="45"/>
       <c r="B175" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="C175" s="39"/>
+        <v>262</v>
+      </c>
+      <c r="C175" s="46"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="38"/>
+      <c r="A176" s="45"/>
       <c r="B176" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="C176" s="39"/>
+        <v>263</v>
+      </c>
+      <c r="C176" s="46"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="38"/>
+      <c r="A177" s="45"/>
       <c r="B177" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="C177" s="39"/>
+        <v>264</v>
+      </c>
+      <c r="C177" s="46"/>
     </row>
     <row r="178" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="20"/>
-      <c r="B178" s="27" t="s">
-        <v>329</v>
+      <c r="B178" s="26" t="s">
+        <v>265</v>
       </c>
       <c r="C178" s="11"/>
     </row>
     <row r="179" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="20"/>
-      <c r="B179" s="27" t="s">
-        <v>330</v>
+      <c r="B179" s="26" t="s">
+        <v>266</v>
       </c>
       <c r="C179" s="11"/>
     </row>
     <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="20"/>
       <c r="B180" s="13" t="s">
-        <v>331</v>
+        <v>267</v>
       </c>
       <c r="C180" s="11"/>
     </row>
     <row r="181" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="20"/>
-      <c r="B181" s="27" t="s">
-        <v>332</v>
+      <c r="B181" s="26" t="s">
+        <v>268</v>
       </c>
       <c r="C181" s="11"/>
     </row>
     <row r="182" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="B182" s="41"/>
-      <c r="C182" s="42"/>
+      <c r="A182" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="B182" s="48"/>
+      <c r="C182" s="49"/>
     </row>
     <row r="183" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="43" t="s">
+      <c r="A183" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="B183" s="44"/>
-      <c r="C183" s="45"/>
+      <c r="B183" s="51"/>
+      <c r="C183" s="52"/>
     </row>
     <row r="184" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="15"/>
       <c r="B184" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="C184" s="67" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86006","C86006")</f>
+        <v>279</v>
+      </c>
+      <c r="C184" s="32" t="str">
+        <f t="shared" ref="C184:C190" si="4">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86006","C86006")</f>
         <v>C86006</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="C185" s="29" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86006","C86006")</f>
+        <v>271</v>
+      </c>
+      <c r="C185" s="28" t="str">
+        <f t="shared" si="4"/>
         <v>C86006</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="C186" s="29" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86006","C86006")</f>
+        <v>270</v>
+      </c>
+      <c r="C186" s="28" t="str">
+        <f t="shared" si="4"/>
         <v>C86006</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="C187" s="29" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86006","C86006")</f>
+        <v>272</v>
+      </c>
+      <c r="C187" s="28" t="str">
+        <f t="shared" si="4"/>
         <v>C86006</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="20"/>
       <c r="B188" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="C188" s="29" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86006","C86006")</f>
+        <v>273</v>
+      </c>
+      <c r="C188" s="28" t="str">
+        <f t="shared" si="4"/>
         <v>C86006</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="C189" s="29" t="str">
+        <v>274</v>
+      </c>
+      <c r="C189" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>C86006</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="41"/>
+      <c r="B190" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C190" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>C86006</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="42"/>
+      <c r="B191" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B663"," - (maint) note")</f>
+        <v xml:space="preserve"> - (maint) note</v>
+      </c>
+      <c r="C191" s="44"/>
+    </row>
+    <row r="192" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="41"/>
+      <c r="B192" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C192" s="43" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86006","C86006")</f>
         <v>C86006</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A190" s="34"/>
-      <c r="B190" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="C190" s="36" t="str">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="42"/>
+      <c r="B193" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B306"," - (browse) drawing_combination")</f>
+        <v xml:space="preserve"> - (browse) drawing_combination</v>
+      </c>
+      <c r="C193" s="44"/>
+    </row>
+    <row r="194" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="41"/>
+      <c r="B194" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C194" s="43" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86006","C86006")</f>
         <v>C86006</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="35"/>
-      <c r="B191" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C191" s="37"/>
-    </row>
-    <row r="192" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="34"/>
-      <c r="B192" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="C192" s="36" t="str">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="42"/>
+      <c r="B195" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B578"," - (browse) location_combination")</f>
+        <v xml:space="preserve"> - (browse) location_combination</v>
+      </c>
+      <c r="C195" s="44"/>
+    </row>
+    <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="41"/>
+      <c r="B196" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C196" s="43" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86006","C86006")</f>
         <v>C86006</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="35"/>
-      <c r="B193" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C193" s="37"/>
-    </row>
-    <row r="194" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="34"/>
-      <c r="B194" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="C194" s="36" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86006","C86006")</f>
-        <v>C86006</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="35"/>
-      <c r="B195" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C195" s="37"/>
-    </row>
-    <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="34"/>
-      <c r="B196" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="C196" s="36" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86006","C86006")</f>
-        <v>C86006</v>
-      </c>
-    </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="35"/>
-      <c r="B197" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C197" s="37"/>
+      <c r="A197" s="42"/>
+      <c r="B197" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B172"," - (browse) contact_combination")</f>
+        <v xml:space="preserve"> - (browse) contact_combination</v>
+      </c>
+      <c r="C197" s="44"/>
     </row>
     <row r="198" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="C198" s="29" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86006","C86006")</f>
+        <v>280</v>
+      </c>
+      <c r="C198" s="28" t="str">
+        <f t="shared" ref="C198:C206" si="5">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86006","C86006")</f>
         <v>C86006</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="C199" s="29" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86006","C86006")</f>
+        <v>281</v>
+      </c>
+      <c r="C199" s="28" t="str">
+        <f t="shared" si="5"/>
         <v>C86006</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="C200" s="29" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86006","C86006")</f>
+        <v>282</v>
+      </c>
+      <c r="C200" s="28" t="str">
+        <f t="shared" si="5"/>
         <v>C86006</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="C201" s="29" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86006","C86006")</f>
+        <v>283</v>
+      </c>
+      <c r="C201" s="28" t="str">
+        <f t="shared" si="5"/>
         <v>C86006</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="C202" s="29" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86006","C86006")</f>
+        <v>284</v>
+      </c>
+      <c r="C202" s="28" t="str">
+        <f t="shared" si="5"/>
         <v>C86006</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="C203" s="29" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86006","C86006")</f>
+        <v>285</v>
+      </c>
+      <c r="C203" s="28" t="str">
+        <f t="shared" si="5"/>
         <v>C86006</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="C204" s="29" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86006","C86006")</f>
+        <v>239</v>
+      </c>
+      <c r="C204" s="28" t="str">
+        <f t="shared" si="5"/>
         <v>C86006</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="C205" s="29" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86006","C86006")</f>
+        <v>286</v>
+      </c>
+      <c r="C205" s="28" t="str">
+        <f t="shared" si="5"/>
         <v>C86006</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="C206" s="29" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86006","C86006")</f>
+        <v>287</v>
+      </c>
+      <c r="C206" s="28" t="str">
+        <f t="shared" si="5"/>
         <v>C86006</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="40" t="s">
+      <c r="A207" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B207" s="41"/>
-      <c r="C207" s="42"/>
+      <c r="B207" s="48"/>
+      <c r="C207" s="49"/>
     </row>
     <row r="208" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="43" t="s">
+      <c r="A208" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B208" s="44"/>
-      <c r="C208" s="45"/>
+      <c r="B208" s="51"/>
+      <c r="C208" s="52"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="38"/>
+      <c r="A209" s="45"/>
       <c r="B209" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C209" s="54" t="str">
+      <c r="C209" s="61" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86020","C86020")</f>
         <v>C86020</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="38"/>
+      <c r="A210" s="45"/>
       <c r="B210" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C210" s="39"/>
+      <c r="C210" s="46"/>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="38"/>
+      <c r="A211" s="45"/>
       <c r="B211" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C211" s="39"/>
+      <c r="C211" s="46"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="38"/>
+      <c r="A212" s="45"/>
       <c r="B212" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C212" s="39"/>
+      <c r="C212" s="46"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="38"/>
+      <c r="A213" s="45"/>
       <c r="B213" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C213" s="39"/>
+      <c r="C213" s="46"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="38"/>
+      <c r="A214" s="45"/>
       <c r="B214" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C214" s="39"/>
+      <c r="C214" s="46"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="38"/>
+      <c r="A215" s="45"/>
       <c r="B215" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C215" s="39"/>
+      <c r="C215" s="46"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="38"/>
+      <c r="A216" s="45"/>
       <c r="B216" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C216" s="39"/>
+      <c r="C216" s="46"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="38"/>
+      <c r="A217" s="45"/>
       <c r="B217" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C217" s="39"/>
+      <c r="C217" s="46"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="38"/>
+      <c r="A218" s="45"/>
       <c r="B218" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C218" s="39"/>
+      <c r="C218" s="46"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="16"/>
       <c r="B219" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C219" s="68" t="str">
+      <c r="C219" s="56" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
@@ -3667,136 +3535,136 @@
       <c r="B220" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C220" s="50"/>
+      <c r="C220" s="57"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="17"/>
       <c r="B221" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C221" s="50"/>
+      <c r="C221" s="57"/>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="17"/>
       <c r="B222" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C222" s="50"/>
+      <c r="C222" s="57"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="17"/>
       <c r="B223" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C223" s="50"/>
+      <c r="C223" s="57"/>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="17"/>
       <c r="B224" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C224" s="50"/>
+      <c r="C224" s="57"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="17"/>
       <c r="B225" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C225" s="50"/>
+      <c r="C225" s="57"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="17"/>
       <c r="B226" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C226" s="50"/>
+      <c r="C226" s="57"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="17"/>
       <c r="B227" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C227" s="50"/>
+      <c r="C227" s="57"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="17"/>
       <c r="B228" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C228" s="50"/>
+      <c r="C228" s="57"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="17"/>
       <c r="B229" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C229" s="50"/>
+      <c r="C229" s="57"/>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="17"/>
       <c r="B230" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="C230" s="50"/>
+        <v>288</v>
+      </c>
+      <c r="C230" s="57"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="17"/>
       <c r="B231" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C231" s="50"/>
+      <c r="C231" s="57"/>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="17"/>
       <c r="B232" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C232" s="50"/>
+      <c r="C232" s="57"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="17"/>
       <c r="B233" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C233" s="50"/>
+      <c r="C233" s="57"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="18"/>
       <c r="B234" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C234" s="51"/>
+      <c r="C234" s="58"/>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="46"/>
+      <c r="A235" s="53"/>
       <c r="B235" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C235" s="68" t="str">
+      <c r="C235" s="56" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="47"/>
+      <c r="A236" s="54"/>
       <c r="B236" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C236" s="50"/>
+      <c r="C236" s="57"/>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="48"/>
+      <c r="A237" s="55"/>
       <c r="B237" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C237" s="51"/>
+      <c r="C237" s="58"/>
     </row>
     <row r="238" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A238" s="19"/>
       <c r="B238" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C238" s="69" t="str">
+      <c r="C238" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
@@ -3806,24 +3674,24 @@
       <c r="B239" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C239" s="69" t="str">
+      <c r="C239" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="43" t="s">
+      <c r="A240" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="B240" s="44"/>
-      <c r="C240" s="45"/>
+      <c r="B240" s="51"/>
+      <c r="C240" s="52"/>
     </row>
     <row r="241" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="21"/>
       <c r="B241" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C241" s="70" t="str">
+      <c r="C241" s="34" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
@@ -3833,65 +3701,67 @@
       <c r="B242" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C242" s="69" t="str">
+      <c r="C242" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A243" s="46"/>
+      <c r="A243" s="53"/>
       <c r="B243" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C243" s="68" t="str">
+      <c r="C243" s="56" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="47"/>
-      <c r="B244" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C244" s="50"/>
+      <c r="A244" s="54"/>
+      <c r="B244" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1485","  - (browse) work_supplier")</f>
+        <v xml:space="preserve">  - (browse) work_supplier</v>
+      </c>
+      <c r="C244" s="57"/>
     </row>
     <row r="245" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A245" s="48"/>
+      <c r="A245" s="55"/>
       <c r="B245" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C245" s="51"/>
+        <v>76</v>
+      </c>
+      <c r="C245" s="58"/>
     </row>
     <row r="246" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A246" s="46"/>
+      <c r="A246" s="53"/>
       <c r="B246" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C246" s="68" t="str">
+      <c r="C246" s="56" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="47"/>
-      <c r="B247" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C247" s="50"/>
+      <c r="A247" s="54"/>
+      <c r="B247" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1501"," - (apicbf) work_supplier_tree")</f>
+        <v xml:space="preserve"> - (apicbf) work_supplier_tree</v>
+      </c>
+      <c r="C247" s="57"/>
     </row>
     <row r="248" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A248" s="48"/>
+      <c r="A248" s="55"/>
       <c r="B248" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C248" s="51"/>
+        <v>77</v>
+      </c>
+      <c r="C248" s="58"/>
     </row>
     <row r="249" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" s="19"/>
       <c r="B249" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C249" s="69" t="str">
+        <v>78</v>
+      </c>
+      <c r="C249" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
@@ -3899,1528 +3769,1581 @@
     <row r="250" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="19"/>
       <c r="B250" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C250" s="69" t="str">
+        <v>79</v>
+      </c>
+      <c r="C250" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A251" s="46"/>
+      <c r="A251" s="53"/>
       <c r="B251" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C251" s="68" t="str">
+        <v>80</v>
+      </c>
+      <c r="C251" s="56" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="47"/>
-      <c r="B252" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C252" s="50"/>
+      <c r="A252" s="54"/>
+      <c r="B252" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1485","  - (browse) work_supplier")</f>
+        <v xml:space="preserve">  - (browse) work_supplier</v>
+      </c>
+      <c r="C252" s="57"/>
     </row>
     <row r="253" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A253" s="48"/>
+      <c r="A253" s="55"/>
       <c r="B253" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C253" s="58"/>
+    </row>
+    <row r="254" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A254" s="53"/>
+      <c r="B254" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C253" s="51"/>
-    </row>
-    <row r="254" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A254" s="46"/>
-      <c r="B254" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C254" s="68" t="str">
+      <c r="C254" s="56" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="47"/>
-      <c r="B255" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C255" s="50"/>
+      <c r="A255" s="54"/>
+      <c r="B255" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1501"," - (apicbf) work_supplier_tree")</f>
+        <v xml:space="preserve"> - (apicbf) work_supplier_tree</v>
+      </c>
+      <c r="C255" s="57"/>
     </row>
     <row r="256" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A256" s="48"/>
+      <c r="A256" s="55"/>
       <c r="B256" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C256" s="51"/>
+        <v>98</v>
+      </c>
+      <c r="C256" s="58"/>
     </row>
     <row r="257" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A257" s="46"/>
+      <c r="A257" s="53"/>
       <c r="B257" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C257" s="68" t="str">
+        <v>83</v>
+      </c>
+      <c r="C257" s="56" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="47"/>
-      <c r="B258" s="15" t="s">
+      <c r="A258" s="54"/>
+      <c r="B258" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B137"," - (browse) capacity_group")</f>
+        <v xml:space="preserve"> - (browse) capacity_group</v>
+      </c>
+      <c r="C258" s="57"/>
+    </row>
+    <row r="259" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A259" s="55"/>
+      <c r="B259" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C259" s="58"/>
+    </row>
+    <row r="260" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A260" s="53"/>
+      <c r="B260" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C258" s="50"/>
-    </row>
-    <row r="259" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A259" s="48"/>
-      <c r="B259" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C259" s="51"/>
-    </row>
-    <row r="260" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A260" s="46"/>
-      <c r="B260" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C260" s="68" t="str">
+      <c r="C260" s="56" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="47"/>
-      <c r="B261" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C261" s="50"/>
+      <c r="A261" s="54"/>
+      <c r="B261" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1522"," - (browse) ws_group")</f>
+        <v xml:space="preserve"> - (browse) ws_group</v>
+      </c>
+      <c r="C261" s="57"/>
     </row>
     <row r="262" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A262" s="48"/>
+      <c r="A262" s="55"/>
       <c r="B262" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C262" s="51"/>
+      <c r="C262" s="58"/>
     </row>
     <row r="263" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A263" s="46"/>
+      <c r="A263" s="53"/>
       <c r="B263" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C263" s="68" t="str">
+      <c r="C263" s="56" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="47"/>
-      <c r="B264" s="15" t="s">
+      <c r="A264" s="54"/>
+      <c r="B264" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B221"," - (browse) cost_type")</f>
+        <v xml:space="preserve"> - (browse) cost_type</v>
+      </c>
+      <c r="C264" s="57"/>
+    </row>
+    <row r="265" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A265" s="55"/>
+      <c r="B265" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C264" s="50"/>
-    </row>
-    <row r="265" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A265" s="48"/>
-      <c r="B265" s="4" t="s">
+      <c r="C265" s="58"/>
+    </row>
+    <row r="266" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A266" s="53"/>
+      <c r="B266" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C265" s="51"/>
-    </row>
-    <row r="266" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A266" s="46"/>
-      <c r="B266" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C266" s="68" t="str">
+      <c r="C266" s="56" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="47"/>
-      <c r="B267" s="15" t="s">
+      <c r="A267" s="54"/>
+      <c r="B267" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1143"," - (browse) supplier")</f>
+        <v xml:space="preserve"> - (browse) supplier</v>
+      </c>
+      <c r="C267" s="57"/>
+    </row>
+    <row r="268" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A268" s="55"/>
+      <c r="B268" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C268" s="58"/>
+    </row>
+    <row r="269" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A269" s="53"/>
+      <c r="B269" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C267" s="50"/>
-    </row>
-    <row r="268" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A268" s="48"/>
-      <c r="B268" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C268" s="51"/>
-    </row>
-    <row r="269" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A269" s="46"/>
-      <c r="B269" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C269" s="68" t="str">
+      <c r="C269" s="56" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="47"/>
-      <c r="B270" s="15" t="s">
+      <c r="A270" s="54"/>
+      <c r="B270" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B3"," - (browse) account")</f>
+        <v xml:space="preserve"> - (browse) account</v>
+      </c>
+      <c r="C270" s="57"/>
+    </row>
+    <row r="271" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="55"/>
+      <c r="B271" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C271" s="58"/>
+    </row>
+    <row r="272" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A272" s="53"/>
+      <c r="B272" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C270" s="50"/>
-    </row>
-    <row r="271" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A271" s="48"/>
-      <c r="B271" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C271" s="51"/>
-    </row>
-    <row r="272" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A272" s="46"/>
-      <c r="B272" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C272" s="68" t="str">
+      <c r="C272" s="56" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="47"/>
-      <c r="B273" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C273" s="50"/>
-    </row>
-    <row r="274" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="48"/>
+      <c r="A273" s="54"/>
+      <c r="B273" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B3"," - (browse) account")</f>
+        <v xml:space="preserve"> - (browse) account</v>
+      </c>
+      <c r="C273" s="57"/>
+    </row>
+    <row r="274" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="55"/>
       <c r="B274" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C274" s="51"/>
+        <v>93</v>
+      </c>
+      <c r="C274" s="58"/>
     </row>
     <row r="275" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A275" s="46"/>
+      <c r="A275" s="53"/>
       <c r="B275" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C275" s="68" t="str">
+        <v>95</v>
+      </c>
+      <c r="C275" s="56" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="47"/>
-      <c r="B276" s="15" t="s">
+      <c r="A276" s="54"/>
+      <c r="B276" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1391"," - (browse) work_category")</f>
+        <v xml:space="preserve"> - (browse) work_category</v>
+      </c>
+      <c r="C276" s="57"/>
+    </row>
+    <row r="277" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="55"/>
+      <c r="B277" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C276" s="50"/>
-    </row>
-    <row r="277" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="48"/>
-      <c r="B277" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C277" s="51"/>
+      <c r="C277" s="58"/>
     </row>
     <row r="278" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A278" s="46"/>
+      <c r="A278" s="53"/>
       <c r="B278" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C278" s="68" t="str">
+        <v>97</v>
+      </c>
+      <c r="C278" s="56" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="47"/>
-      <c r="B279" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C279" s="50"/>
-    </row>
-    <row r="280" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="48"/>
+      <c r="A279" s="54"/>
+      <c r="B279" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B591"," - (browse) maintenance_object")</f>
+        <v xml:space="preserve"> - (browse) maintenance_object</v>
+      </c>
+      <c r="C279" s="57"/>
+    </row>
+    <row r="280" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A280" s="55"/>
       <c r="B280" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C280" s="51"/>
+        <v>100</v>
+      </c>
+      <c r="C280" s="58"/>
     </row>
     <row r="281" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A281" s="46"/>
+      <c r="A281" s="53"/>
       <c r="B281" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C281" s="68" t="str">
+        <v>99</v>
+      </c>
+      <c r="C281" s="56" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="47"/>
-      <c r="B282" s="15" t="s">
+      <c r="A282" s="54"/>
+      <c r="B282" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B618"," - (apicbf) maintenance_object_tree")</f>
+        <v xml:space="preserve"> - (apicbf) maintenance_object_tree</v>
+      </c>
+      <c r="C282" s="57"/>
+    </row>
+    <row r="283" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A283" s="55"/>
+      <c r="B283" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C283" s="58"/>
+    </row>
+    <row r="284" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A284" s="53"/>
+      <c r="B284" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C282" s="50"/>
-    </row>
-    <row r="283" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A283" s="48"/>
-      <c r="B283" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C283" s="51"/>
-    </row>
-    <row r="284" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A284" s="46"/>
-      <c r="B284" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C284" s="68" t="str">
+      <c r="C284" s="56" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="47"/>
-      <c r="B285" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C285" s="50"/>
+      <c r="A285" s="54"/>
+      <c r="B285" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B776"," - (browse) plant")</f>
+        <v xml:space="preserve"> - (browse) plant</v>
+      </c>
+      <c r="C285" s="57"/>
     </row>
     <row r="286" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A286" s="48"/>
+      <c r="A286" s="55"/>
       <c r="B286" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C286" s="51"/>
+        <v>106</v>
+      </c>
+      <c r="C286" s="58"/>
     </row>
     <row r="287" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A287" s="46"/>
+      <c r="A287" s="53"/>
       <c r="B287" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C287" s="68" t="str">
+        <v>107</v>
+      </c>
+      <c r="C287" s="56" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="47"/>
-      <c r="B288" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C288" s="50"/>
-    </row>
-    <row r="289" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A289" s="48"/>
+      <c r="A288" s="54"/>
+      <c r="B288" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B994"," - (browse) site")</f>
+        <v xml:space="preserve"> - (browse) site</v>
+      </c>
+      <c r="C288" s="57"/>
+    </row>
+    <row r="289" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A289" s="55"/>
       <c r="B289" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C289" s="51"/>
-    </row>
-    <row r="290" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A290" s="46"/>
-      <c r="B290" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C290" s="68" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
+        <v>108</v>
+      </c>
+      <c r="C289" s="58"/>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="22"/>
+      <c r="B290" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C290" s="34" t="str">
+        <f t="shared" ref="C290:C308" si="6">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="47"/>
-      <c r="B291" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C291" s="50"/>
-    </row>
-    <row r="292" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A292" s="48"/>
+      <c r="A291" s="22"/>
+      <c r="B291" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C291" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v>C86007</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="22"/>
       <c r="B292" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C292" s="51"/>
+        <v>129</v>
+      </c>
+      <c r="C292" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v>C86007</v>
+      </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="22"/>
       <c r="B293" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="C293" s="70" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
+        <v>130</v>
+      </c>
+      <c r="C293" s="34" t="str">
+        <f t="shared" si="6"/>
         <v>C86007</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="22"/>
       <c r="B294" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C294" s="70" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
+        <v>131</v>
+      </c>
+      <c r="C294" s="34" t="str">
+        <f t="shared" si="6"/>
         <v>C86007</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="22"/>
       <c r="B295" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C295" s="70" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
+        <v>132</v>
+      </c>
+      <c r="C295" s="34" t="str">
+        <f t="shared" si="6"/>
         <v>C86007</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="22"/>
       <c r="B296" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C296" s="70" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
+        <v>133</v>
+      </c>
+      <c r="C296" s="34" t="str">
+        <f t="shared" si="6"/>
         <v>C86007</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="22"/>
       <c r="B297" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C297" s="70" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
+        <v>134</v>
+      </c>
+      <c r="C297" s="34" t="str">
+        <f t="shared" si="6"/>
         <v>C86007</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="22"/>
       <c r="B298" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C298" s="70" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
+        <v>135</v>
+      </c>
+      <c r="C298" s="34" t="str">
+        <f t="shared" si="6"/>
         <v>C86007</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="22"/>
       <c r="B299" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="C299" s="70" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
+        <v>136</v>
+      </c>
+      <c r="C299" s="34" t="str">
+        <f t="shared" si="6"/>
         <v>C86007</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="22"/>
       <c r="B300" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="C300" s="70" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
+        <v>137</v>
+      </c>
+      <c r="C300" s="34" t="str">
+        <f t="shared" si="6"/>
         <v>C86007</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="22"/>
-      <c r="B301" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="C301" s="70" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
+      <c r="A301" s="19"/>
+      <c r="B301" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C301" s="33" t="str">
+        <f t="shared" si="6"/>
         <v>C86007</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="22"/>
-      <c r="B302" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C302" s="70" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
+    <row r="302" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A302" s="19"/>
+      <c r="B302" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C302" s="33" t="str">
+        <f t="shared" si="6"/>
         <v>C86007</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="22"/>
-      <c r="B303" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C303" s="70" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
+      <c r="A303" s="19"/>
+      <c r="B303" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C303" s="33" t="str">
+        <f t="shared" si="6"/>
         <v>C86007</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="19"/>
       <c r="B304" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C304" s="69" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
+        <v>104</v>
+      </c>
+      <c r="C304" s="33" t="str">
+        <f t="shared" si="6"/>
         <v>C86007</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="19"/>
       <c r="B305" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C305" s="69" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
+        <v>110</v>
+      </c>
+      <c r="C305" s="33" t="str">
+        <f t="shared" si="6"/>
         <v>C86007</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="19"/>
       <c r="B306" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C306" s="69" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
+        <v>111</v>
+      </c>
+      <c r="C306" s="33" t="str">
+        <f t="shared" si="6"/>
         <v>C86007</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="19"/>
       <c r="B307" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C307" s="69" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
+        <v>112</v>
+      </c>
+      <c r="C307" s="33" t="str">
+        <f t="shared" si="6"/>
         <v>C86007</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="19"/>
       <c r="B308" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C308" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>C86007</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A309" s="53"/>
+      <c r="B309" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C309" s="56" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86020","C86020")</f>
+        <v>C86020</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="54"/>
+      <c r="B310" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B762"," - (browse) planned_worksupp [3]")</f>
+        <v xml:space="preserve"> - (browse) planned_worksupp [3]</v>
+      </c>
+      <c r="C310" s="57"/>
+    </row>
+    <row r="311" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A311" s="55"/>
+      <c r="B311" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C311" s="58"/>
+    </row>
+    <row r="312" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A312" s="53"/>
+      <c r="B312" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C312" s="56" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86020","C86020")</f>
+        <v>C86020</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="55"/>
+      <c r="B313" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1510"," - (browse) workload [1]")</f>
+        <v xml:space="preserve"> - (browse) workload [1]</v>
+      </c>
+      <c r="C313" s="58"/>
+    </row>
+    <row r="314" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A314" s="53"/>
+      <c r="B314" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C314" s="56" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86020","C86020")</f>
+        <v>C86020</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="55"/>
+      <c r="B315" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1537"," - (browse) month_calendar")</f>
+        <v xml:space="preserve"> - (browse) month_calendar</v>
+      </c>
+      <c r="C315" s="58"/>
+    </row>
+    <row r="316" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A316" s="53"/>
+      <c r="B316" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C316" s="56" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86020","C86020")</f>
+        <v>C86020</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="54"/>
+      <c r="B317" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B361"," - (browse) exception [2]")</f>
+        <v xml:space="preserve"> - (browse) exception [2]</v>
+      </c>
+      <c r="C317" s="57"/>
+    </row>
+    <row r="318" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="55"/>
+      <c r="B318" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C318" s="58"/>
+    </row>
+    <row r="319" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A319" s="53"/>
+      <c r="B319" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C319" s="56" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86020","C86020")</f>
+        <v>C86020</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="54"/>
+      <c r="B320" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B141"," - (browse) capacity_group_exception [2]")</f>
+        <v xml:space="preserve"> - (browse) capacity_group_exception [2]</v>
+      </c>
+      <c r="C320" s="57"/>
+    </row>
+    <row r="321" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="55"/>
+      <c r="B321" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C321" s="58"/>
+    </row>
+    <row r="322" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A322" s="53"/>
+      <c r="B322" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C322" s="56" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86020","C86020")</f>
+        <v>C86020</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="54"/>
+      <c r="B323" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B986"," - (browse) shifview")</f>
+        <v xml:space="preserve"> - (browse) shifview</v>
+      </c>
+      <c r="C323" s="57"/>
+    </row>
+    <row r="324" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A324" s="55"/>
+      <c r="B324" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C308" s="69" t="str">
+      <c r="C324" s="58"/>
+    </row>
+    <row r="325" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A325" s="53"/>
+      <c r="B325" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C325" s="56" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86020","C86020")</f>
+        <v>C86020</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="54"/>
+      <c r="B326" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1235"," - (browse) transactions [1]")</f>
+        <v xml:space="preserve"> - (browse) transactions [1]</v>
+      </c>
+      <c r="C326" s="57"/>
+    </row>
+    <row r="327" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A327" s="55"/>
+      <c r="B327" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C327" s="58"/>
+    </row>
+    <row r="328" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A328" s="53"/>
+      <c r="B328" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C328" s="56" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86020","C86020")</f>
+        <v>C86020</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="54"/>
+      <c r="B329" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1016"," - (browse) skill_ws_combination")</f>
+        <v xml:space="preserve"> - (browse) skill_ws_combination</v>
+      </c>
+      <c r="C329" s="57"/>
+    </row>
+    <row r="330" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A330" s="55"/>
+      <c r="B330" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C330" s="58"/>
+    </row>
+    <row r="331" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A331" s="53"/>
+      <c r="B331" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C331" s="56" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86020","C86020")</f>
+        <v>C86020</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="54"/>
+      <c r="B332" s="74" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1012"," - (browse) skill_ws_certificate")</f>
+        <v xml:space="preserve"> - (browse) skill_ws_certificate</v>
+      </c>
+      <c r="C332" s="57"/>
+    </row>
+    <row r="333" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="55"/>
+      <c r="B333" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C333" s="58"/>
+    </row>
+    <row r="334" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B334" s="48"/>
+      <c r="C334" s="49"/>
+    </row>
+    <row r="335" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B335" s="51"/>
+      <c r="C335" s="52"/>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="54"/>
+      <c r="B336" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C336" s="68" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86021","C86021")</f>
+        <v>C86021</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="54"/>
+      <c r="B337" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C337" s="57"/>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="55"/>
+      <c r="B338" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C338" s="58"/>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="19"/>
+      <c r="B339" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C339" s="33" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86021","C86021")</f>
+        <v>C86021</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="19"/>
+      <c r="B340" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C340" s="33" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86021","C86021")</f>
+        <v>C86021</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B341" s="51"/>
+      <c r="C341" s="52"/>
+    </row>
+    <row r="342" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A342" s="53"/>
+      <c r="B342" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C342" s="56" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="19"/>
-      <c r="B309" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C309" s="69" t="str">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="54"/>
+      <c r="B343" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C343" s="57"/>
+    </row>
+    <row r="344" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A344" s="55"/>
+      <c r="B344" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C344" s="58"/>
+    </row>
+    <row r="345" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A345" s="53"/>
+      <c r="B345" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C345" s="56" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="19"/>
-      <c r="B310" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C310" s="69" t="str">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="54"/>
+      <c r="B346" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1501"," - (apicbf) work_supplier_tree")</f>
+        <v xml:space="preserve"> - (apicbf) work_supplier_tree</v>
+      </c>
+      <c r="C346" s="57"/>
+    </row>
+    <row r="347" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A347" s="55"/>
+      <c r="B347" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C347" s="58"/>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="19"/>
+      <c r="B348" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C348" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="19"/>
-      <c r="B311" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C311" s="69" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
-        <v>C86007</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A312" s="46"/>
-      <c r="B312" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C312" s="68" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86020","C86020")</f>
-        <v>C86020</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="47"/>
-      <c r="B313" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C313" s="50"/>
-    </row>
-    <row r="314" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A314" s="48"/>
-      <c r="B314" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C314" s="51"/>
-    </row>
-    <row r="315" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A315" s="46"/>
-      <c r="B315" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C315" s="68" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86020","C86020")</f>
-        <v>C86020</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="48"/>
-      <c r="B316" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C316" s="51"/>
-    </row>
-    <row r="317" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A317" s="46"/>
-      <c r="B317" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C317" s="68" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86020","C86020")</f>
-        <v>C86020</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="48"/>
-      <c r="B318" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C318" s="51"/>
-    </row>
-    <row r="319" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A319" s="46"/>
-      <c r="B319" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C319" s="68" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86020","C86020")</f>
-        <v>C86020</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="47"/>
-      <c r="B320" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C320" s="50"/>
-    </row>
-    <row r="321" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="48"/>
-      <c r="B321" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="C321" s="51"/>
-    </row>
-    <row r="322" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A322" s="46"/>
-      <c r="B322" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C322" s="68" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86020","C86020")</f>
-        <v>C86020</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="47"/>
-      <c r="B323" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C323" s="50"/>
-    </row>
-    <row r="324" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="48"/>
-      <c r="B324" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C324" s="51"/>
-    </row>
-    <row r="325" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A325" s="46"/>
-      <c r="B325" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C325" s="68" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86020","C86020")</f>
-        <v>C86020</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="47"/>
-      <c r="B326" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C326" s="50"/>
-    </row>
-    <row r="327" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A327" s="48"/>
-      <c r="B327" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C327" s="51"/>
-    </row>
-    <row r="328" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A328" s="46"/>
-      <c r="B328" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C328" s="68" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86020","C86020")</f>
-        <v>C86020</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" s="47"/>
-      <c r="B329" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C329" s="50"/>
-    </row>
-    <row r="330" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A330" s="48"/>
-      <c r="B330" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C330" s="51"/>
-    </row>
-    <row r="331" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A331" s="46"/>
-      <c r="B331" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C331" s="68" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86020","C86020")</f>
-        <v>C86020</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="47"/>
-      <c r="B332" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C332" s="50"/>
-    </row>
-    <row r="333" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A333" s="48"/>
-      <c r="B333" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C333" s="51"/>
-    </row>
-    <row r="334" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A334" s="46"/>
-      <c r="B334" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C334" s="68" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86020","C86020")</f>
-        <v>C86020</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="47"/>
-      <c r="B335" s="15" t="s">
+    <row r="349" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="19"/>
+      <c r="B349" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C335" s="50"/>
-    </row>
-    <row r="336" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="48"/>
-      <c r="B336" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C336" s="51"/>
-    </row>
-    <row r="337" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="B337" s="41"/>
-      <c r="C337" s="42"/>
-    </row>
-    <row r="338" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B338" s="44"/>
-      <c r="C338" s="45"/>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" s="47"/>
-      <c r="B339" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C339" s="71" t="str">
+      <c r="C349" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86021","C86021")</f>
         <v>C86021</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" s="47"/>
-      <c r="B340" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C340" s="50"/>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="48"/>
-      <c r="B341" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="C341" s="51"/>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="19"/>
-      <c r="B342" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C342" s="69" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86021","C86021")</f>
-        <v>C86021</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="19"/>
-      <c r="B343" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C343" s="69" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86021","C86021")</f>
-        <v>C86021</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B344" s="44"/>
-      <c r="C344" s="45"/>
-    </row>
-    <row r="345" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A345" s="46"/>
-      <c r="B345" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C345" s="68" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
-        <v>C86007</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="47"/>
-      <c r="B346" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C346" s="50"/>
-    </row>
-    <row r="347" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A347" s="48"/>
-      <c r="B347" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C347" s="51"/>
-    </row>
-    <row r="348" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A348" s="46"/>
-      <c r="B348" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C348" s="68" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
-        <v>C86007</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="47"/>
-      <c r="B349" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C349" s="50"/>
-    </row>
-    <row r="350" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A350" s="48"/>
-      <c r="B350" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C350" s="51"/>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351" s="19"/>
-      <c r="B351" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C351" s="69" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
-        <v>C86007</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="19"/>
-      <c r="B352" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C352" s="69" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86021","C86021")</f>
-        <v>C86021</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="B353" s="41"/>
-      <c r="C353" s="42"/>
-    </row>
-    <row r="354" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="43" t="s">
+    <row r="350" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B350" s="48"/>
+      <c r="C350" s="49"/>
+    </row>
+    <row r="351" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B354" s="44"/>
-      <c r="C354" s="45"/>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355" s="61"/>
-      <c r="B355" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C355" s="72" t="str">
+      <c r="B351" s="51"/>
+      <c r="C351" s="52"/>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="39"/>
+      <c r="B352" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C352" s="36" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86022","C86022")</f>
         <v>C86022</v>
       </c>
     </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="39"/>
+      <c r="B353" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C353" s="69"/>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="39"/>
+      <c r="B354" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C354" s="69"/>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="39"/>
+      <c r="B355" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C355" s="69"/>
+    </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" s="61"/>
+      <c r="A356" s="39"/>
       <c r="B356" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C356" s="63"/>
+        <v>151</v>
+      </c>
+      <c r="C356" s="69"/>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357" s="61"/>
-      <c r="B357" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C357" s="63"/>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" s="61"/>
-      <c r="B358" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C358" s="63"/>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359" s="61"/>
-      <c r="B359" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C359" s="63"/>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="62"/>
-      <c r="B360" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="C360" s="64"/>
-    </row>
-    <row r="361" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A357" s="40"/>
+      <c r="B357" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C357" s="70"/>
+    </row>
+    <row r="358" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A358" s="19"/>
+      <c r="B358" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C358" s="33" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86022","C86022")</f>
+        <v>C86022</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="19"/>
+      <c r="B359" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C359" s="33" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86022","C86022")</f>
+        <v>C86022</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B360" s="51"/>
+      <c r="C360" s="52"/>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="19"/>
       <c r="B361" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="C361" s="69" t="str">
+        <v>155</v>
+      </c>
+      <c r="C361" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86022","C86022")</f>
         <v>C86022</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="19"/>
       <c r="B362" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C362" s="69" t="str">
+        <v>154</v>
+      </c>
+      <c r="C362" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86022","C86022")</f>
         <v>C86022</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B363" s="44"/>
-      <c r="C363" s="45"/>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="19"/>
+      <c r="B363" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C363" s="33" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86022","C86022")</f>
+        <v>C86022</v>
+      </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="19"/>
       <c r="B364" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="C364" s="69" t="str">
+        <v>157</v>
+      </c>
+      <c r="C364" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86022","C86022")</f>
         <v>C86022</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" s="19"/>
-      <c r="B365" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="C365" s="69" t="str">
+    <row r="365" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A365" s="53"/>
+      <c r="B365" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C365" s="56" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
+        <v>C86007</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="54"/>
+      <c r="B366" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1485","  - (browse) work_supplier")</f>
+        <v xml:space="preserve">  - (browse) work_supplier</v>
+      </c>
+      <c r="C366" s="57"/>
+    </row>
+    <row r="367" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A367" s="55"/>
+      <c r="B367" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C367" s="58"/>
+    </row>
+    <row r="368" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A368" s="53"/>
+      <c r="B368" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C368" s="56" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
+        <v>C86007</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="54"/>
+      <c r="B369" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1501"," - (apicbf) work_supplier_tree")</f>
+        <v xml:space="preserve"> - (apicbf) work_supplier_tree</v>
+      </c>
+      <c r="C369" s="57"/>
+    </row>
+    <row r="370" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A370" s="55"/>
+      <c r="B370" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C370" s="58"/>
+    </row>
+    <row r="371" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A371" s="53"/>
+      <c r="B371" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C371" s="56" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86022","C86022")</f>
         <v>C86022</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A366" s="19"/>
-      <c r="B366" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="C366" s="69" t="str">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="54"/>
+      <c r="B372" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B573"," - (browse) location")</f>
+        <v xml:space="preserve"> - (browse) location</v>
+      </c>
+      <c r="C372" s="57"/>
+    </row>
+    <row r="373" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A373" s="55"/>
+      <c r="B373" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C373" s="58"/>
+    </row>
+    <row r="374" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A374" s="53"/>
+      <c r="B374" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C374" s="56" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86022","C86022")</f>
         <v>C86022</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367" s="19"/>
-      <c r="B367" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="C367" s="69" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86022","C86022")</f>
-        <v>C86022</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A368" s="46"/>
-      <c r="B368" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C368" s="68" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
-        <v>C86007</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="47"/>
-      <c r="B369" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C369" s="50"/>
-    </row>
-    <row r="370" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A370" s="48"/>
-      <c r="B370" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C370" s="51"/>
-    </row>
-    <row r="371" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A371" s="46"/>
-      <c r="B371" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C371" s="68" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
-        <v>C86007</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" s="47"/>
-      <c r="B372" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C372" s="50"/>
-    </row>
-    <row r="373" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A373" s="48"/>
-      <c r="B373" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C373" s="51"/>
-    </row>
-    <row r="374" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A374" s="46"/>
-      <c r="B374" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="C374" s="68" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86022","C86022")</f>
-        <v>C86022</v>
-      </c>
-    </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="47"/>
-      <c r="B375" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C375" s="50"/>
-    </row>
-    <row r="376" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A376" s="48"/>
+      <c r="A375" s="54"/>
+      <c r="B375" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B181"," - (browse) contact_person")</f>
+        <v xml:space="preserve"> - (browse) contact_person</v>
+      </c>
+      <c r="C375" s="57"/>
+    </row>
+    <row r="376" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="55"/>
       <c r="B376" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C376" s="51"/>
-    </row>
-    <row r="377" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A377" s="46"/>
-      <c r="B377" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C377" s="68" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86022","C86022")</f>
-        <v>C86022</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378" s="47"/>
-      <c r="B378" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C378" s="50"/>
-    </row>
-    <row r="379" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="48"/>
-      <c r="B379" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C379" s="51"/>
-    </row>
-    <row r="380" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="B380" s="41"/>
-      <c r="C380" s="42"/>
-    </row>
-    <row r="381" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A381" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C376" s="58"/>
+    </row>
+    <row r="377" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="B377" s="48"/>
+      <c r="C377" s="49"/>
+    </row>
+    <row r="378" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B381" s="44"/>
-      <c r="C381" s="45"/>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="61"/>
-      <c r="B382" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="C382" s="72" t="str">
+      <c r="B378" s="51"/>
+      <c r="C378" s="52"/>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="39"/>
+      <c r="B379" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C379" s="36" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86023","C86023")</f>
         <v>C86023</v>
       </c>
     </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="39"/>
+      <c r="B380" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C380" s="69"/>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="39"/>
+      <c r="B381" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C381" s="69"/>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="39"/>
+      <c r="B382" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C382" s="69"/>
+    </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383" s="61"/>
+      <c r="A383" s="39"/>
       <c r="B383" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C383" s="63"/>
+        <v>165</v>
+      </c>
+      <c r="C383" s="69"/>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384" s="61"/>
-      <c r="B384" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C384" s="63"/>
+      <c r="A384" s="40"/>
+      <c r="B384" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C384" s="70"/>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" s="61"/>
-      <c r="B385" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C385" s="63"/>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" s="61"/>
-      <c r="B386" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C386" s="63"/>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="62"/>
-      <c r="B387" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="C387" s="64"/>
+      <c r="A385" s="19"/>
+      <c r="B385" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C385" s="33" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86023","C86023")</f>
+        <v>C86023</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="19"/>
+      <c r="B386" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C386" s="33" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86023","C86023")</f>
+        <v>C86023</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A387" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B387" s="51"/>
+      <c r="C387" s="52"/>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="19"/>
       <c r="B388" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="C388" s="69" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86023","C86023")</f>
+        <v>155</v>
+      </c>
+      <c r="C388" s="33" t="str">
+        <f t="shared" ref="C388:C393" si="7">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86023","C86023")</f>
         <v>C86023</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A389" s="19"/>
       <c r="B389" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C389" s="69" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86023","C86023")</f>
+        <v>168</v>
+      </c>
+      <c r="C389" s="33" t="str">
+        <f t="shared" si="7"/>
         <v>C86023</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B390" s="44"/>
-      <c r="C390" s="45"/>
+    <row r="390" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A390" s="19"/>
+      <c r="B390" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C390" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>C86023</v>
+      </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="19"/>
       <c r="B391" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="C391" s="69" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86023","C86023")</f>
+        <v>170</v>
+      </c>
+      <c r="C391" s="33" t="str">
+        <f t="shared" si="7"/>
         <v>C86023</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="19"/>
       <c r="B392" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="C392" s="69" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86023","C86023")</f>
+        <v>291</v>
+      </c>
+      <c r="C392" s="33" t="str">
+        <f t="shared" si="7"/>
         <v>C86023</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A393" s="19"/>
       <c r="B393" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="C393" s="69" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86023","C86023")</f>
+        <v>171</v>
+      </c>
+      <c r="C393" s="33" t="str">
+        <f t="shared" si="7"/>
         <v>C86023</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="19"/>
       <c r="B394" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="C394" s="69" t="str">
+        <v>172</v>
+      </c>
+      <c r="C394" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86023","C86023")</f>
         <v>C86023</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395" s="19"/>
-      <c r="B395" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="C395" s="69" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86023","C86023")</f>
-        <v>C86023</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A396" s="19"/>
-      <c r="B396" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="C396" s="69" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86023","C86023")</f>
-        <v>C86023</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" s="19"/>
-      <c r="B397" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="C397" s="69" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86023","C86023")</f>
-        <v>C86023</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A398" s="46"/>
-      <c r="B398" s="14" t="s">
+    <row r="395" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A395" s="53"/>
+      <c r="B395" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C398" s="68" t="str">
+      <c r="C395" s="56" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
         <v>C86007</v>
       </c>
     </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="54"/>
+      <c r="B396" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1485","  - (browse) work_supplier")</f>
+        <v xml:space="preserve">  - (browse) work_supplier</v>
+      </c>
+      <c r="C396" s="57"/>
+    </row>
+    <row r="397" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A397" s="55"/>
+      <c r="B397" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C397" s="58"/>
+    </row>
+    <row r="398" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A398" s="53"/>
+      <c r="B398" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C398" s="56" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
+        <v>C86007</v>
+      </c>
+    </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399" s="47"/>
-      <c r="B399" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C399" s="50"/>
-    </row>
-    <row r="400" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A400" s="48"/>
+      <c r="A399" s="54"/>
+      <c r="B399" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1501"," - (apicbf) work_supplier_tree")</f>
+        <v xml:space="preserve"> - (apicbf) work_supplier_tree</v>
+      </c>
+      <c r="C399" s="57"/>
+    </row>
+    <row r="400" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="55"/>
       <c r="B400" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C400" s="51"/>
-    </row>
-    <row r="401" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A401" s="46"/>
-      <c r="B401" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C401" s="68" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
-        <v>C86007</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" s="47"/>
-      <c r="B402" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C402" s="50"/>
-    </row>
-    <row r="403" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A403" s="48"/>
-      <c r="B403" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C403" s="51"/>
-    </row>
-    <row r="404" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A404" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="B404" s="41"/>
-      <c r="C404" s="42"/>
-    </row>
-    <row r="405" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A405" s="43" t="s">
+      <c r="C400" s="58"/>
+    </row>
+    <row r="401" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="B401" s="48"/>
+      <c r="C401" s="49"/>
+    </row>
+    <row r="402" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B405" s="44"/>
-      <c r="C405" s="45"/>
+      <c r="B402" s="51"/>
+      <c r="C402" s="52"/>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="54"/>
+      <c r="B403" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C403" s="68" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86025","C86025")</f>
+        <v>C86025</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="54"/>
+      <c r="B404" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C404" s="57"/>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="54"/>
+      <c r="B405" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C405" s="57"/>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A406" s="47"/>
+      <c r="A406" s="54"/>
       <c r="B406" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C406" s="50"/>
+        <v>177</v>
+      </c>
+      <c r="C406" s="57"/>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="47"/>
+      <c r="A407" s="54"/>
       <c r="B407" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C407" s="50"/>
+        <v>178</v>
+      </c>
+      <c r="C407" s="57"/>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="47"/>
+      <c r="A408" s="55"/>
       <c r="B408" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C408" s="50"/>
+        <v>179</v>
+      </c>
+      <c r="C408" s="58"/>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="47"/>
-      <c r="B409" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C409" s="50"/>
+      <c r="A409" s="38"/>
+      <c r="B409" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C409" s="35" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86025","C86025")</f>
+        <v>C86025</v>
+      </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410" s="47"/>
-      <c r="B410" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C410" s="50"/>
+      <c r="A410" s="39"/>
+      <c r="B410" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C410" s="36"/>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411" s="48"/>
-      <c r="B411" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="C411" s="51"/>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412" s="25"/>
-      <c r="B412" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="C412" s="33"/>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="25"/>
+      <c r="A411" s="40"/>
+      <c r="B411" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C411" s="37"/>
+    </row>
+    <row r="412" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A412" s="19"/>
+      <c r="B412" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C412" s="33" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86025","C86025")</f>
+        <v>C86025</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A413" s="19"/>
       <c r="B413" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="C413" s="33"/>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414" s="25"/>
-      <c r="B414" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="C414" s="33"/>
-    </row>
-    <row r="415" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A415" s="19"/>
-      <c r="B415" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="C415" s="33"/>
-    </row>
-    <row r="416" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="C413" s="33" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86025","C86025")</f>
+        <v>C86025</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A414" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B414" s="51"/>
+      <c r="C414" s="52"/>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="21"/>
+      <c r="B415" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C415" s="31"/>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="19"/>
       <c r="B416" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C416" s="33"/>
-    </row>
-    <row r="417" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A417" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B417" s="44"/>
-      <c r="C417" s="45"/>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418" s="21"/>
-      <c r="B418" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C418" s="32"/>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="C416" s="33" t="str">
+        <f t="shared" ref="C416:C421" si="8">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86025","C86025")</f>
+        <v>C86025</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="19"/>
+      <c r="B417" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C417" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>C86025</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A418" s="19"/>
+      <c r="B418" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C418" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>C86025</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A419" s="19"/>
       <c r="B419" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C419" s="33"/>
+        <v>185</v>
+      </c>
+      <c r="C419" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>C86025</v>
+      </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="19"/>
       <c r="B420" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C420" s="33"/>
+        <v>187</v>
+      </c>
+      <c r="C420" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>C86025</v>
+      </c>
     </row>
     <row r="421" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A421" s="19"/>
       <c r="B421" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="C421" s="33"/>
+        <v>188</v>
+      </c>
+      <c r="C421" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>C86025</v>
+      </c>
     </row>
     <row r="422" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A422" s="19"/>
-      <c r="B422" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="C422" s="33"/>
+      <c r="A422" s="53"/>
+      <c r="B422" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C422" s="56" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
+        <v>C86007</v>
+      </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A423" s="19"/>
-      <c r="B423" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C423" s="33"/>
-    </row>
-    <row r="424" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A424" s="19"/>
-      <c r="B424" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C424" s="33"/>
+      <c r="A423" s="54"/>
+      <c r="B423" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1485","  - (browse) work_supplier")</f>
+        <v xml:space="preserve">  - (browse) work_supplier</v>
+      </c>
+      <c r="C423" s="57"/>
+    </row>
+    <row r="424" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A424" s="55"/>
+      <c r="B424" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C424" s="58"/>
     </row>
     <row r="425" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A425" s="46"/>
+      <c r="A425" s="53"/>
       <c r="B425" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C425" s="49"/>
+        <v>75</v>
+      </c>
+      <c r="C425" s="56" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86007","C86007")</f>
+        <v>C86007</v>
+      </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426" s="47"/>
-      <c r="B426" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C426" s="50"/>
+      <c r="A426" s="54"/>
+      <c r="B426" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1501"," - (apicbf) work_supplier_tree")</f>
+        <v xml:space="preserve"> - (apicbf) work_supplier_tree</v>
+      </c>
+      <c r="C426" s="57"/>
     </row>
     <row r="427" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A427" s="48"/>
+      <c r="A427" s="55"/>
       <c r="B427" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C427" s="51"/>
+      <c r="C427" s="58"/>
     </row>
     <row r="428" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A428" s="46"/>
+      <c r="A428" s="53"/>
       <c r="B428" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C428" s="49"/>
+        <v>189</v>
+      </c>
+      <c r="C428" s="56" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86025","C86025")</f>
+        <v>C86025</v>
+      </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429" s="47"/>
-      <c r="B429" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C429" s="50"/>
-    </row>
-    <row r="430" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A430" s="48"/>
+      <c r="A429" s="54"/>
+      <c r="B429" s="73" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B969","  - (browse) shift_plan")</f>
+        <v xml:space="preserve">  - (browse) shift_plan</v>
+      </c>
+      <c r="C429" s="57"/>
+    </row>
+    <row r="430" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A430" s="55"/>
       <c r="B430" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C430" s="51"/>
-    </row>
-    <row r="431" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A431" s="46"/>
-      <c r="B431" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="C431" s="49"/>
+        <v>190</v>
+      </c>
+      <c r="C430" s="58"/>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="19"/>
+      <c r="B431" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C431" s="33" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86025","C86025")</f>
+        <v>C86025</v>
+      </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A432" s="47"/>
-      <c r="B432" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="C432" s="50"/>
-    </row>
-    <row r="433" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A433" s="48"/>
-      <c r="B433" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C433" s="51"/>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A434" s="19"/>
-      <c r="B434" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="C434" s="33"/>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A435" s="19"/>
-      <c r="B435" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="C435" s="33"/>
+      <c r="A432" s="19"/>
+      <c r="B432" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C432" s="33" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/86025","C86025")</f>
+        <v>C86025</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="164">
-    <mergeCell ref="A431:A433"/>
-    <mergeCell ref="C431:C433"/>
+    <mergeCell ref="A428:A430"/>
+    <mergeCell ref="C428:C430"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A43:A54"/>
@@ -5433,62 +5356,60 @@
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A417:C417"/>
+    <mergeCell ref="A414:C414"/>
+    <mergeCell ref="A422:A424"/>
+    <mergeCell ref="C422:C424"/>
     <mergeCell ref="A425:A427"/>
     <mergeCell ref="C425:C427"/>
-    <mergeCell ref="A428:A430"/>
-    <mergeCell ref="C428:C430"/>
-    <mergeCell ref="A401:A403"/>
-    <mergeCell ref="C401:C403"/>
-    <mergeCell ref="A404:C404"/>
-    <mergeCell ref="A405:C405"/>
-    <mergeCell ref="A406:A411"/>
-    <mergeCell ref="C406:C411"/>
-    <mergeCell ref="A381:C381"/>
-    <mergeCell ref="A382:A387"/>
-    <mergeCell ref="C382:C387"/>
-    <mergeCell ref="A390:C390"/>
     <mergeCell ref="A398:A400"/>
     <mergeCell ref="C398:C400"/>
+    <mergeCell ref="A401:C401"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A403:A408"/>
+    <mergeCell ref="C403:C408"/>
+    <mergeCell ref="A378:C378"/>
+    <mergeCell ref="A379:A384"/>
+    <mergeCell ref="C379:C384"/>
+    <mergeCell ref="A387:C387"/>
+    <mergeCell ref="A395:A397"/>
+    <mergeCell ref="C395:C397"/>
+    <mergeCell ref="A371:A373"/>
+    <mergeCell ref="C371:C373"/>
     <mergeCell ref="A374:A376"/>
     <mergeCell ref="C374:C376"/>
-    <mergeCell ref="A377:A379"/>
-    <mergeCell ref="C377:C379"/>
-    <mergeCell ref="A380:C380"/>
-    <mergeCell ref="A363:C363"/>
+    <mergeCell ref="A377:C377"/>
+    <mergeCell ref="A360:C360"/>
+    <mergeCell ref="A365:A367"/>
+    <mergeCell ref="C365:C367"/>
     <mergeCell ref="A368:A370"/>
     <mergeCell ref="C368:C370"/>
-    <mergeCell ref="A371:A373"/>
-    <mergeCell ref="C371:C373"/>
-    <mergeCell ref="A354:C354"/>
-    <mergeCell ref="A355:A360"/>
-    <mergeCell ref="C355:C360"/>
+    <mergeCell ref="A351:C351"/>
+    <mergeCell ref="A352:A357"/>
+    <mergeCell ref="C352:C357"/>
+    <mergeCell ref="A342:A344"/>
+    <mergeCell ref="C342:C344"/>
     <mergeCell ref="A345:A347"/>
     <mergeCell ref="C345:C347"/>
-    <mergeCell ref="A348:A350"/>
-    <mergeCell ref="C348:C350"/>
-    <mergeCell ref="A353:C353"/>
-    <mergeCell ref="A344:C344"/>
-    <mergeCell ref="A334:A336"/>
-    <mergeCell ref="C334:C336"/>
-    <mergeCell ref="A337:C337"/>
-    <mergeCell ref="A338:C338"/>
-    <mergeCell ref="A339:A341"/>
-    <mergeCell ref="C339:C341"/>
+    <mergeCell ref="A350:C350"/>
+    <mergeCell ref="A341:C341"/>
+    <mergeCell ref="A331:A333"/>
+    <mergeCell ref="C331:C333"/>
+    <mergeCell ref="A334:C334"/>
+    <mergeCell ref="A335:C335"/>
+    <mergeCell ref="A336:A338"/>
+    <mergeCell ref="C336:C338"/>
+    <mergeCell ref="A322:A324"/>
+    <mergeCell ref="C322:C324"/>
     <mergeCell ref="A325:A327"/>
     <mergeCell ref="C325:C327"/>
     <mergeCell ref="A328:A330"/>
     <mergeCell ref="C328:C330"/>
-    <mergeCell ref="A331:A333"/>
-    <mergeCell ref="C331:C333"/>
-    <mergeCell ref="A269:A271"/>
-    <mergeCell ref="C269:C271"/>
+    <mergeCell ref="A266:A268"/>
+    <mergeCell ref="C266:C268"/>
     <mergeCell ref="A260:A262"/>
     <mergeCell ref="C260:C262"/>
     <mergeCell ref="A263:A265"/>
     <mergeCell ref="C263:C265"/>
-    <mergeCell ref="A266:A268"/>
-    <mergeCell ref="C266:C268"/>
     <mergeCell ref="A251:A253"/>
     <mergeCell ref="C251:C253"/>
     <mergeCell ref="A254:A256"/>
@@ -5530,30 +5451,28 @@
     <mergeCell ref="A153:A154"/>
     <mergeCell ref="C153:C154"/>
     <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A278:A280"/>
+    <mergeCell ref="C278:C280"/>
     <mergeCell ref="A281:A283"/>
     <mergeCell ref="C281:C283"/>
-    <mergeCell ref="A284:A286"/>
-    <mergeCell ref="C284:C286"/>
+    <mergeCell ref="A269:A271"/>
+    <mergeCell ref="C269:C271"/>
     <mergeCell ref="A272:A274"/>
     <mergeCell ref="C272:C274"/>
     <mergeCell ref="A275:A277"/>
     <mergeCell ref="C275:C277"/>
-    <mergeCell ref="A278:A280"/>
-    <mergeCell ref="C278:C280"/>
-    <mergeCell ref="A290:A292"/>
-    <mergeCell ref="C290:C292"/>
-    <mergeCell ref="A287:A289"/>
-    <mergeCell ref="C287:C289"/>
-    <mergeCell ref="A312:A314"/>
-    <mergeCell ref="C312:C314"/>
+    <mergeCell ref="A284:A286"/>
+    <mergeCell ref="C284:C286"/>
+    <mergeCell ref="A309:A311"/>
+    <mergeCell ref="C309:C311"/>
+    <mergeCell ref="A316:A318"/>
+    <mergeCell ref="C316:C318"/>
     <mergeCell ref="A319:A321"/>
     <mergeCell ref="C319:C321"/>
-    <mergeCell ref="A322:A324"/>
-    <mergeCell ref="C322:C324"/>
-    <mergeCell ref="A315:A316"/>
-    <mergeCell ref="C315:C316"/>
-    <mergeCell ref="A317:A318"/>
-    <mergeCell ref="C317:C318"/>
+    <mergeCell ref="A312:A313"/>
+    <mergeCell ref="C312:C313"/>
+    <mergeCell ref="A314:A315"/>
+    <mergeCell ref="C314:C315"/>
     <mergeCell ref="C155:C156"/>
     <mergeCell ref="A157:A158"/>
     <mergeCell ref="C157:C158"/>
@@ -5563,6 +5482,8 @@
     <mergeCell ref="C161:C162"/>
     <mergeCell ref="A163:A164"/>
     <mergeCell ref="C163:C164"/>
+    <mergeCell ref="C409:C411"/>
+    <mergeCell ref="A409:A411"/>
     <mergeCell ref="A165:A166"/>
     <mergeCell ref="C165:C166"/>
     <mergeCell ref="A167:A168"/>
@@ -5583,6 +5504,8 @@
     <mergeCell ref="C192:C193"/>
     <mergeCell ref="A194:A195"/>
     <mergeCell ref="C194:C195"/>
+    <mergeCell ref="A287:A289"/>
+    <mergeCell ref="C287:C289"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
